--- a/outputs-r202/o__Oscillospirales.xlsx
+++ b/outputs-r202/o__Oscillospirales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:S88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -585,6 +590,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -645,6 +655,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -705,6 +720,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -765,6 +785,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -825,6 +850,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -885,6 +915,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -945,6 +980,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1005,6 +1045,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1065,6 +1110,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1125,6 +1175,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1185,6 +1240,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1245,6 +1305,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1305,6 +1370,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1365,6 +1435,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1425,6 +1500,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1485,6 +1565,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1545,6 +1630,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1605,6 +1695,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1665,6 +1760,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1725,6 +1825,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1785,6 +1890,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1845,6 +1955,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1905,6 +2020,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1965,6 +2085,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2025,6 +2150,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2085,6 +2215,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2145,6 +2280,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2205,6 +2345,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2265,6 +2410,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2325,6 +2475,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2385,6 +2540,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2445,6 +2605,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2505,6 +2670,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2565,6 +2735,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2625,6 +2800,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2685,6 +2865,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2745,6 +2930,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2805,6 +2995,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2865,6 +3060,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2925,6 +3125,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2985,6 +3190,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3045,6 +3255,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3105,6 +3320,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3165,6 +3385,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3225,6 +3450,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3285,6 +3515,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3345,6 +3580,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3405,6 +3645,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3465,6 +3710,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3525,6 +3775,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3585,6 +3840,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3645,6 +3905,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -3705,6 +3970,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -3765,6 +4035,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3825,6 +4100,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3885,6 +4165,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3945,6 +4230,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -4005,6 +4295,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -4065,6 +4360,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -4125,6 +4425,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -4185,6 +4490,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -4245,6 +4555,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -4305,6 +4620,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -4365,6 +4685,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -4425,6 +4750,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -4485,6 +4815,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -4545,6 +4880,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -4605,6 +4945,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -4665,6 +5010,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -4725,6 +5075,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -4785,6 +5140,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -4845,6 +5205,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -4905,6 +5270,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4965,6 +5335,11 @@
           <t>f__CAG-272</t>
         </is>
       </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>f__CAG-272</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -5025,6 +5400,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -5085,6 +5465,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -5145,6 +5530,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -5205,6 +5595,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -5265,6 +5660,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -5325,6 +5725,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -5385,6 +5790,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -5445,6 +5855,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -5505,6 +5920,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -5565,6 +5985,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -5625,6 +6050,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -5685,6 +6115,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -5741,6 +6176,11 @@
         <v>0.9801790474912938</v>
       </c>
       <c r="R88" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>

--- a/outputs-r202/o__Oscillospirales.xlsx
+++ b/outputs-r202/o__Oscillospirales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S88"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,139 +525,124 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG008.fasta</t>
+          <t>RUG007.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999962086057661</v>
+        <v>3.089002637606845e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220445491425922e-14</v>
+        <v>2.220446003522519e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220445491425922e-14</v>
+        <v>2.220446003522519e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>3.268096218479866e-09</v>
+        <v>3.522007662019586e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>2.10518728272483e-08</v>
+        <v>5.551586372498702e-12</v>
       </c>
       <c r="G2" t="n">
-        <v>2.220445491425922e-14</v>
+        <v>2.220446003522519e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.220445491425922e-14</v>
+        <v>2.220446003522519e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.220445491425922e-14</v>
+        <v>5.67559311171292e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.220445491425922e-14</v>
+        <v>2.220446003522519e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.220445491425922e-14</v>
+        <v>2.220446003522519e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.767074020673717e-06</v>
+        <v>0.9999996910903839</v>
       </c>
       <c r="M2" t="n">
-        <v>2.220445491425922e-14</v>
+        <v>2.220446003522519e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.220445491425922e-14</v>
+        <v>2.220446003522519e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>2.220445491425922e-14</v>
+        <v>2.220446003522519e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.220445491425922e-14</v>
+        <v>2.220446003522519e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9999962086057661</v>
+        <v>0.9999996910903839</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Ruminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG060.fasta</t>
+          <t>RUG008.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002489558144485715</v>
+        <v>0.9999740633922849</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220080210683769e-14</v>
+        <v>2.220442236021611e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220080210683769e-14</v>
+        <v>2.220442236021611e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>4.265534138720433e-11</v>
+        <v>9.519139763081348e-09</v>
       </c>
       <c r="F3" t="n">
-        <v>1.838691237100201e-07</v>
+        <v>3.44697644488664e-07</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220080210683769e-14</v>
+        <v>2.220442236021611e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.220080210683769e-14</v>
+        <v>2.220442236021611e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>3.954271796775446e-09</v>
+        <v>2.220442236021611e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220080210683769e-14</v>
+        <v>2.220442236021611e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.220080210683769e-14</v>
+        <v>2.220442236021611e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9975102539892413</v>
+        <v>2.558239068659249e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>2.220080210683769e-14</v>
+        <v>2.220442236021611e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.220080210683769e-14</v>
+        <v>2.220442236021611e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>2.220080210683769e-14</v>
+        <v>2.220442236021611e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>2.220080210683769e-14</v>
+        <v>2.220442236021611e-14</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9975102539892413</v>
+        <v>0.9999740633922849</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
@@ -668,59 +653,54 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994088917760222</v>
+        <v>0.9998733909685129</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220358923364999e-14</v>
+        <v>2.220427595653646e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220358923364999e-14</v>
+        <v>2.220427595653646e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>5.376486343458625e-07</v>
+        <v>3.902637606692664e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>4.136180582294484e-07</v>
+        <v>1.913547792554018e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220358923364999e-14</v>
+        <v>2.220427595653646e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220358923364999e-14</v>
+        <v>2.220427595653646e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220358923364999e-14</v>
+        <v>6.419164025281182e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220358923364999e-14</v>
+        <v>2.220427595653646e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220358923364999e-14</v>
+        <v>2.220427595653646e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005901569570411197</v>
+        <v>0.0001243052196477308</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220358923364999e-14</v>
+        <v>2.220427595653646e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.220358923364999e-14</v>
+        <v>2.220427595653646e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>2.220358923364999e-14</v>
+        <v>2.220427595653646e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.220358923364999e-14</v>
+        <v>2.220427595653646e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9994088917760222</v>
+        <v>0.9998733909685129</v>
       </c>
       <c r="R4" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -733,59 +713,54 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999995995373</v>
+        <v>0.9999999995463912</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220446230460968e-14</v>
+        <v>2.220446183786279e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220446230460968e-14</v>
+        <v>2.220446183786279e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>9.052629325277703e-14</v>
+        <v>4.990589010764603e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>3.431906891420199e-10</v>
+        <v>4.117543043826565e-10</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220446230460968e-14</v>
+        <v>2.22044618378628e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220446230460968e-14</v>
+        <v>2.22044618378628e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>5.345692922563348e-12</v>
+        <v>3.957585022238682e-12</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220446230460968e-14</v>
+        <v>2.22044618378628e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220446230460968e-14</v>
+        <v>2.22044618378628e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>5.161371284881396e-11</v>
+        <v>3.762495682900796e-11</v>
       </c>
       <c r="M5" t="n">
-        <v>2.220446230460968e-14</v>
+        <v>2.22044618378628e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.220446230460968e-14</v>
+        <v>2.22044618378628e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>2.220446230460968e-14</v>
+        <v>2.22044618378628e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.220446230460968e-14</v>
+        <v>2.22044618378628e-14</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9999999995995373</v>
+        <v>0.9999999995463912</v>
       </c>
       <c r="R5" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -798,59 +773,54 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999245442711328</v>
+        <v>0.9998928445811796</v>
       </c>
       <c r="C6" t="n">
-        <v>2.223294803634946e-14</v>
+        <v>2.221932527226526e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.223294803634946e-14</v>
+        <v>2.221932527226526e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>7.610700247320025e-08</v>
+        <v>1.790429920918397e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>5.026791834387086e-09</v>
+        <v>2.419413184743429e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>2.223294803634946e-14</v>
+        <v>2.221932527226526e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.223294803634946e-14</v>
+        <v>2.221932527226526e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>1.008416949665688e-09</v>
+        <v>6.670450076614402e-10</v>
       </c>
       <c r="J6" t="n">
-        <v>2.223294803634946e-14</v>
+        <v>2.221932527226526e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>2.223294803634946e-14</v>
+        <v>2.221932527226526e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>7.537358643396828e-05</v>
+        <v>0.0001071126531224194</v>
       </c>
       <c r="M6" t="n">
-        <v>2.223294803634946e-14</v>
+        <v>2.221932527226526e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.223294803634946e-14</v>
+        <v>2.221932527226526e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>2.223294803634946e-14</v>
+        <v>2.221932527226526e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.223294803634946e-14</v>
+        <v>2.221932527226526e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9999245442711328</v>
+        <v>0.9998928445811796</v>
       </c>
       <c r="R6" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -863,59 +833,54 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.889263995179785e-06</v>
+        <v>1.110805468010752e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220359500725551e-14</v>
+        <v>2.220058156883542e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220359500725551e-14</v>
+        <v>2.220058156883542e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0005817898909288551</v>
+        <v>0.003485828441501092</v>
       </c>
       <c r="F7" t="n">
-        <v>5.006623610394538e-14</v>
+        <v>4.176438748098313e-13</v>
       </c>
       <c r="G7" t="n">
-        <v>2.220359500725551e-14</v>
+        <v>2.220058156883542e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220359500725551e-14</v>
+        <v>2.220058156883542e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9994143203456827</v>
+        <v>0.9965140604128259</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220359500725551e-14</v>
+        <v>2.220058156883542e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>2.220359500725551e-14</v>
+        <v>2.220058156883542e-14</v>
       </c>
       <c r="L7" t="n">
-        <v>4.991210085597321e-10</v>
+        <v>6.448640046884084e-11</v>
       </c>
       <c r="M7" t="n">
-        <v>2.220359500725551e-14</v>
+        <v>2.220058156883542e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.220359500725551e-14</v>
+        <v>2.220058156883542e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>2.220359500725551e-14</v>
+        <v>2.220058156883542e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.220359500725551e-14</v>
+        <v>2.220058156883542e-14</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9994143203456827</v>
+        <v>0.9965140604128259</v>
       </c>
       <c r="R7" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
         <is>
           <t>f__Oscillospiraceae</t>
         </is>
@@ -924,63 +889,58 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG105.fasta</t>
+          <t>RUG122.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9986276948903203</v>
+        <v>0.9958731072322008</v>
       </c>
       <c r="C8" t="n">
-        <v>2.22026299749073e-14</v>
+        <v>2.220064064909695e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.22026299749073e-14</v>
+        <v>2.220064064909695e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>1.016682538139464e-05</v>
+        <v>1.833407687258639e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>8.964714228735781e-11</v>
+        <v>0.003945174990240868</v>
       </c>
       <c r="G8" t="n">
-        <v>2.22026299749073e-14</v>
+        <v>2.220064064909695e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.22026299749073e-14</v>
+        <v>2.220064064909695e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>6.203616601529465e-09</v>
+        <v>0.000103979088274205</v>
       </c>
       <c r="J8" t="n">
-        <v>2.22026299749073e-14</v>
+        <v>2.220064064909695e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>2.22026299749073e-14</v>
+        <v>2.220064064909695e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001362131990812415</v>
+        <v>7.590528137492729e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>2.22026299749073e-14</v>
+        <v>2.220064064909695e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.22026299749073e-14</v>
+        <v>2.220064064909695e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>2.22026299749073e-14</v>
+        <v>2.220064064909695e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22026299749073e-14</v>
+        <v>2.220064064909695e-14</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9986276948903203</v>
+        <v>0.9958731072322008</v>
       </c>
       <c r="R8" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -989,128 +949,118 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG109.fasta</t>
+          <t>RUG127.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996887928438871</v>
+        <v>9.655689644779252e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>2.220400332587496e-14</v>
+        <v>2.220445901879807e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>2.220400332587496e-14</v>
+        <v>2.220445901879807e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>1.978419701310259e-08</v>
+        <v>2.995223537932804e-08</v>
       </c>
       <c r="F9" t="n">
-        <v>1.784724720346955e-06</v>
+        <v>2.793683179864886e-11</v>
       </c>
       <c r="G9" t="n">
-        <v>2.220400332587496e-14</v>
+        <v>2.220445901879807e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.220400332587496e-14</v>
+        <v>2.220445901879807e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.220400332587496e-14</v>
+        <v>2.220445901879807e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>2.220400332587496e-14</v>
+        <v>2.220445901879807e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>2.220400332587496e-14</v>
+        <v>2.220445901879807e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003094026469512556</v>
+        <v>0.999999004450619</v>
       </c>
       <c r="M9" t="n">
-        <v>2.220400332587496e-14</v>
+        <v>2.220445901879807e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>2.220400332587496e-14</v>
+        <v>2.220445901879807e-14</v>
       </c>
       <c r="O9" t="n">
-        <v>2.220400332587496e-14</v>
+        <v>2.220445901879807e-14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.220400332587496e-14</v>
+        <v>2.220445901879807e-14</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9996887928438871</v>
+        <v>0.999999004450619</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Ruminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG122.fasta</t>
+          <t>RUG132.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9978607549484642</v>
+        <v>0.9964824285694073</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220165631966975e-14</v>
+        <v>2.220058562291796e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220165631966975e-14</v>
+        <v>2.220058562291796e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>1.006203112874919e-06</v>
+        <v>0.003513306654272289</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001966535578874877</v>
+        <v>4.139597435450415e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>2.220165631966975e-14</v>
+        <v>2.220058562291796e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.220165631966975e-14</v>
+        <v>2.220058562291796e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>3.989638462893883e-05</v>
+        <v>1.227490226602294e-07</v>
       </c>
       <c r="J10" t="n">
-        <v>2.220165631966975e-14</v>
+        <v>2.220058562291796e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>2.220165631966975e-14</v>
+        <v>2.220058562291796e-14</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001318068846970855</v>
+        <v>2.429640317738027e-09</v>
       </c>
       <c r="M10" t="n">
-        <v>2.220165631966975e-14</v>
+        <v>2.220058562291796e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>2.220165631966975e-14</v>
+        <v>2.220058562291796e-14</v>
       </c>
       <c r="O10" t="n">
-        <v>2.220165631966975e-14</v>
+        <v>2.220058562291796e-14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.220165631966975e-14</v>
+        <v>2.220058562291796e-14</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9978607549484642</v>
+        <v>0.9964824285694073</v>
       </c>
       <c r="R10" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -1119,63 +1069,58 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG132.fasta</t>
+          <t>RUG135.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9994832959251801</v>
+        <v>0.9997587392601452</v>
       </c>
       <c r="C11" t="n">
-        <v>2.221287022305704e-14</v>
+        <v>2.222235685852748e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>2.221287022305704e-14</v>
+        <v>2.222235685852748e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0004888473406050114</v>
+        <v>6.460266141523262e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>1.543285291883229e-05</v>
+        <v>5.381664527172186e-12</v>
       </c>
       <c r="G11" t="n">
-        <v>2.221287022305704e-14</v>
+        <v>2.222235685852748e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.221287022305704e-14</v>
+        <v>2.222235685852748e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>1.241762719510972e-05</v>
+        <v>2.618570382086686e-11</v>
       </c>
       <c r="J11" t="n">
-        <v>2.221287022305704e-14</v>
+        <v>2.222235685852748e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>2.221287022305704e-14</v>
+        <v>2.222235685852748e-14</v>
       </c>
       <c r="L11" t="n">
-        <v>6.253878792904111e-09</v>
+        <v>0.0002406146814512189</v>
       </c>
       <c r="M11" t="n">
-        <v>2.221287022305704e-14</v>
+        <v>2.222235685852748e-14</v>
       </c>
       <c r="N11" t="n">
-        <v>2.221287022305704e-14</v>
+        <v>2.222235685852748e-14</v>
       </c>
       <c r="O11" t="n">
-        <v>2.221287022305704e-14</v>
+        <v>2.222235685852748e-14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.221287022305704e-14</v>
+        <v>2.222235685852748e-14</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9994832959251801</v>
+        <v>0.9997587392601452</v>
       </c>
       <c r="R11" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -1184,63 +1129,58 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG135.fasta</t>
+          <t>RUG149.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999889559482006</v>
+        <v>0.9999999998998578</v>
       </c>
       <c r="C12" t="n">
-        <v>2.22414407529293e-14</v>
+        <v>2.220446112592816e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>2.22414407529293e-14</v>
+        <v>2.220446112592816e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>1.664220979648192e-07</v>
+        <v>2.220446112592823e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>3.879489678771573e-12</v>
+        <v>8.674200139829099e-11</v>
       </c>
       <c r="G12" t="n">
-        <v>2.22414407529293e-14</v>
+        <v>2.220446112592816e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>2.22414407529293e-14</v>
+        <v>2.220446112592816e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>2.459005290684146e-11</v>
+        <v>7.682556810030885e-12</v>
       </c>
       <c r="J12" t="n">
-        <v>2.22414407529293e-14</v>
+        <v>2.220446112592816e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>2.22414407529293e-14</v>
+        <v>2.220446112592816e-14</v>
       </c>
       <c r="L12" t="n">
-        <v>1.087760100975163e-05</v>
+        <v>5.473523303668214e-12</v>
       </c>
       <c r="M12" t="n">
-        <v>2.22414407529293e-14</v>
+        <v>2.220446112592816e-14</v>
       </c>
       <c r="N12" t="n">
-        <v>2.22414407529293e-14</v>
+        <v>2.220446112592816e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>2.22414407529293e-14</v>
+        <v>2.220446112592816e-14</v>
       </c>
       <c r="P12" t="n">
-        <v>2.22414407529293e-14</v>
+        <v>2.220446112592816e-14</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9999889559482006</v>
+        <v>0.9999999998998578</v>
       </c>
       <c r="R12" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -1249,63 +1189,58 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG138.fasta</t>
+          <t>RUG155.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.995857803124796</v>
+        <v>0.999975426585874</v>
       </c>
       <c r="C13" t="n">
-        <v>2.220059601375452e-14</v>
+        <v>2.220442441867384e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>2.220059601375452e-14</v>
+        <v>2.220442441867384e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>1.006325699804331e-05</v>
+        <v>2.45707795740384e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>3.741022472192565e-11</v>
+        <v>1.855186225443122e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>2.220059601375452e-14</v>
+        <v>2.220442441867384e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>2.220059601375452e-14</v>
+        <v>2.220442441867384e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>2.695984041423161e-10</v>
+        <v>3.470506639803366e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>2.220059601375452e-14</v>
+        <v>2.220442441867384e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>2.220059601375452e-14</v>
+        <v>2.220442441867384e-14</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004132133310975364</v>
+        <v>2.633797142927443e-09</v>
       </c>
       <c r="M13" t="n">
-        <v>2.220059601375452e-14</v>
+        <v>2.220442441867384e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>2.220059601375452e-14</v>
+        <v>2.220442441867384e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>2.220059601375452e-14</v>
+        <v>2.220442441867384e-14</v>
       </c>
       <c r="P13" t="n">
-        <v>2.220059601375452e-14</v>
+        <v>2.220442441867384e-14</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.995857803124796</v>
+        <v>0.999975426585874</v>
       </c>
       <c r="R13" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -1314,63 +1249,58 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG149.fasta</t>
+          <t>RUG158.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999998059916</v>
+        <v>0.9989218706204959</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220446234506601e-14</v>
+        <v>4.418513662501452e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>2.220446234506601e-14</v>
+        <v>4.418513662501449e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>2.220446234506606e-14</v>
+        <v>5.659362212052813e-12</v>
       </c>
       <c r="F14" t="n">
-        <v>6.328593032379506e-12</v>
+        <v>1.80776693506792e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>2.220446234506601e-14</v>
+        <v>4.418513662501437e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>2.220446234506601e-14</v>
+        <v>4.418513662501439e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>1.830502058423366e-10</v>
+        <v>9.001378874570603e-07</v>
       </c>
       <c r="J14" t="n">
-        <v>2.220446234506601e-14</v>
+        <v>4.418513662501452e-14</v>
       </c>
       <c r="K14" t="n">
-        <v>2.220446234506601e-14</v>
+        <v>4.41851366250143e-14</v>
       </c>
       <c r="L14" t="n">
-        <v>4.385247672559279e-12</v>
+        <v>0.001077211157846032</v>
       </c>
       <c r="M14" t="n">
-        <v>2.220446234506601e-14</v>
+        <v>4.418513662501447e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>2.220446234506601e-14</v>
+        <v>4.418513662501454e-14</v>
       </c>
       <c r="O14" t="n">
-        <v>2.220446234506601e-14</v>
+        <v>4.418513662501454e-14</v>
       </c>
       <c r="P14" t="n">
-        <v>2.220446234506601e-14</v>
+        <v>4.418513662501431e-14</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9999999998059916</v>
+        <v>0.9989218706204959</v>
       </c>
       <c r="R14" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -1379,63 +1309,58 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG155.fasta</t>
+          <t>RUG183.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999969877405561</v>
+        <v>0.9999433390924765</v>
       </c>
       <c r="C15" t="n">
-        <v>2.220441652063214e-14</v>
+        <v>2.220683552173453e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>2.220441652063214e-14</v>
+        <v>2.220683552173453e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>3.012230406101226e-05</v>
+        <v>1.383096568736401e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>5.417608348423978e-13</v>
+        <v>8.936897320936783e-11</v>
       </c>
       <c r="G15" t="n">
-        <v>2.220441652063214e-14</v>
+        <v>2.220683552173453e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.220441652063214e-14</v>
+        <v>2.220683552173453e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>1.169812064649745e-12</v>
+        <v>2.220683552173457e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>2.220441652063214e-14</v>
+        <v>2.220683552173452e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>2.220441652063214e-14</v>
+        <v>2.220683552173452e-14</v>
       </c>
       <c r="L15" t="n">
-        <v>2.884445641790449e-10</v>
+        <v>5.652250825346227e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>2.220441652063214e-14</v>
+        <v>2.220683552173452e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.220441652063214e-14</v>
+        <v>2.220683552173452e-14</v>
       </c>
       <c r="O15" t="n">
-        <v>2.220441652063214e-14</v>
+        <v>2.220683552173452e-14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.220441652063214e-14</v>
+        <v>2.220683552173452e-14</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.999969877405561</v>
+        <v>0.9999433390924765</v>
       </c>
       <c r="R15" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -1444,63 +1369,58 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG158.fasta</t>
+          <t>RUG194.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9880662021729424</v>
+        <v>0.9979903977641725</v>
       </c>
       <c r="C16" t="n">
-        <v>2.220137346547451e-14</v>
+        <v>2.220170808430129e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>2.220137346547451e-14</v>
+        <v>2.220170808430129e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>5.022937475655747e-12</v>
+        <v>0.001741877570522421</v>
       </c>
       <c r="F16" t="n">
-        <v>1.163257645203842e-10</v>
+        <v>0.0002677220140564884</v>
       </c>
       <c r="G16" t="n">
-        <v>2.220137346547451e-14</v>
+        <v>2.220170808430129e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>2.220137346547451e-14</v>
+        <v>2.220170808430129e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>2.745138219197735e-07</v>
+        <v>3.869051600255186e-10</v>
       </c>
       <c r="J16" t="n">
-        <v>2.220137346547451e-14</v>
+        <v>2.220170808430129e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>2.220137346547451e-14</v>
+        <v>2.220170808430129e-14</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01193352319166494</v>
+        <v>2.264121291657923e-09</v>
       </c>
       <c r="M16" t="n">
-        <v>2.220137346547451e-14</v>
+        <v>2.220170808430129e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>2.220137346547451e-14</v>
+        <v>2.220170808430129e-14</v>
       </c>
       <c r="O16" t="n">
-        <v>2.220137346547451e-14</v>
+        <v>2.220170808430129e-14</v>
       </c>
       <c r="P16" t="n">
-        <v>2.220137346547451e-14</v>
+        <v>2.220170808430129e-14</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9880662021729424</v>
+        <v>0.9979903977641725</v>
       </c>
       <c r="R16" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -1509,128 +1429,118 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG171.fasta</t>
+          <t>RUG213.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04872864423810913</v>
+        <v>0.9999337006764469</v>
       </c>
       <c r="C17" t="n">
-        <v>2.220094551666582e-14</v>
+        <v>2.222730389379729e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>2.220094551666582e-14</v>
+        <v>2.222730389379729e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>7.736858927183274e-11</v>
+        <v>1.151559508812749e-12</v>
       </c>
       <c r="F17" t="n">
-        <v>4.878469604026725e-13</v>
+        <v>2.013893517985892e-08</v>
       </c>
       <c r="G17" t="n">
-        <v>2.220094551666582e-14</v>
+        <v>2.222730389379729e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>2.220094551666582e-14</v>
+        <v>2.222730389379729e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>2.220094551666582e-14</v>
+        <v>4.590078976444901e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>2.220094551666582e-14</v>
+        <v>2.222730389379729e-14</v>
       </c>
       <c r="K17" t="n">
-        <v>2.220094551666582e-14</v>
+        <v>2.222730389379728e-14</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9512713556837903</v>
+        <v>2.037839347970831e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>2.220094551666582e-14</v>
+        <v>2.222730389379728e-14</v>
       </c>
       <c r="N17" t="n">
-        <v>2.220094551666582e-14</v>
+        <v>2.222730389379728e-14</v>
       </c>
       <c r="O17" t="n">
-        <v>2.220094551666582e-14</v>
+        <v>2.222730389379728e-14</v>
       </c>
       <c r="P17" t="n">
-        <v>2.220094551666582e-14</v>
+        <v>2.222730389379728e-14</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9512713556837903</v>
+        <v>0.9999337006764469</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG183.fasta</t>
+          <t>RUG217.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999390255937093</v>
+        <v>0.9999782837392659</v>
       </c>
       <c r="C18" t="n">
-        <v>2.220426640818494e-14</v>
+        <v>2.220442854645995e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>2.220426640818494e-14</v>
+        <v>2.220442854645995e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>9.476836103871248e-08</v>
+        <v>2.171266341003461e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>3.18143501033878e-11</v>
+        <v>1.927272239622905e-13</v>
       </c>
       <c r="G18" t="n">
-        <v>2.220426640818494e-14</v>
+        <v>2.220442854645995e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>2.220426640818494e-14</v>
+        <v>2.220442854645995e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>2.220426640818494e-14</v>
+        <v>2.404867897482163e-13</v>
       </c>
       <c r="J18" t="n">
-        <v>2.220426640818494e-14</v>
+        <v>2.220442854645995e-14</v>
       </c>
       <c r="K18" t="n">
-        <v>2.220426640818494e-14</v>
+        <v>2.220442854645995e-14</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000609649262487474</v>
+        <v>3.596668933776295e-09</v>
       </c>
       <c r="M18" t="n">
-        <v>2.220426640818494e-14</v>
+        <v>2.220442854645995e-14</v>
       </c>
       <c r="N18" t="n">
-        <v>2.220426640818494e-14</v>
+        <v>2.220442854645995e-14</v>
       </c>
       <c r="O18" t="n">
-        <v>2.220426640818494e-14</v>
+        <v>2.220442854645995e-14</v>
       </c>
       <c r="P18" t="n">
-        <v>2.220426640818494e-14</v>
+        <v>2.220442854645995e-14</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.999390255937093</v>
+        <v>0.9999782837392659</v>
       </c>
       <c r="R18" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -1639,63 +1549,58 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG194.fasta</t>
+          <t>RUG218.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9974100806210402</v>
+        <v>0.999972771071696</v>
       </c>
       <c r="C19" t="n">
-        <v>2.220099633390346e-14</v>
+        <v>2.220442057630366e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>9.871295095244831e-14</v>
+        <v>2.220442057630366e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002520417384782701</v>
+        <v>2.72277203686033e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>6.949981437367029e-05</v>
+        <v>1.672822227064775e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>2.220099633390346e-14</v>
+        <v>2.220442057630366e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>2.220099633390346e-14</v>
+        <v>2.220442057630366e-14</v>
       </c>
       <c r="I19" t="n">
-        <v>2.247850671999846e-10</v>
+        <v>4.696136665924638e-12</v>
       </c>
       <c r="J19" t="n">
-        <v>2.220099633390346e-14</v>
+        <v>2.220442057630366e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>2.220099633390346e-14</v>
+        <v>2.220442057630366e-14</v>
       </c>
       <c r="L19" t="n">
-        <v>1.954719757772105e-09</v>
+        <v>1.202849910942529e-09</v>
       </c>
       <c r="M19" t="n">
-        <v>2.220099633390346e-14</v>
+        <v>2.220442057630366e-14</v>
       </c>
       <c r="N19" t="n">
-        <v>2.220099633390346e-14</v>
+        <v>2.220442057630366e-14</v>
       </c>
       <c r="O19" t="n">
-        <v>2.220099633390346e-14</v>
+        <v>2.220442057630366e-14</v>
       </c>
       <c r="P19" t="n">
-        <v>2.220099633390346e-14</v>
+        <v>2.220442057630366e-14</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9974100806210402</v>
+        <v>0.999972771071696</v>
       </c>
       <c r="R19" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -1704,193 +1609,178 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG198.fasta</t>
+          <t>RUG220.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9978054595882272</v>
+        <v>2.328889875171898e-08</v>
       </c>
       <c r="C20" t="n">
-        <v>2.220126507205327e-14</v>
+        <v>2.220058880678407e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>2.220126507205327e-14</v>
+        <v>2.220058880678407e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002101336509094914</v>
+        <v>0.004470839469284485</v>
       </c>
       <c r="F20" t="n">
-        <v>5.951269623146063e-13</v>
+        <v>6.239397818699723e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>2.220126507205327e-14</v>
+        <v>2.220058880678407e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>2.220126507205327e-14</v>
+        <v>2.220058880678407e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>9.316934750291265e-05</v>
+        <v>0.9955291371252192</v>
       </c>
       <c r="J20" t="n">
-        <v>2.220126507205327e-14</v>
+        <v>2.220058880678407e-14</v>
       </c>
       <c r="K20" t="n">
-        <v>2.220126507205327e-14</v>
+        <v>2.220058880678407e-14</v>
       </c>
       <c r="L20" t="n">
-        <v>3.455435758993277e-08</v>
+        <v>1.157515518526132e-10</v>
       </c>
       <c r="M20" t="n">
-        <v>2.220126507205327e-14</v>
+        <v>2.220058880678407e-14</v>
       </c>
       <c r="N20" t="n">
-        <v>2.220126507205327e-14</v>
+        <v>2.220058880678407e-14</v>
       </c>
       <c r="O20" t="n">
-        <v>2.220126507205327e-14</v>
+        <v>2.220058880678407e-14</v>
       </c>
       <c r="P20" t="n">
-        <v>2.220126507205327e-14</v>
+        <v>2.220058880678407e-14</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9978054595882272</v>
+        <v>0.9955291371252192</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG213.fasta</t>
+          <t>RUG221.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.999952098465871</v>
+        <v>0.001875999876016521</v>
       </c>
       <c r="C21" t="n">
-        <v>2.221741967325171e-14</v>
+        <v>2.220169878580461e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>2.221741967325171e-14</v>
+        <v>2.220169878580461e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>1.187852443785332e-12</v>
+        <v>9.611783929471536e-10</v>
       </c>
       <c r="F21" t="n">
-        <v>3.811681880360408e-09</v>
+        <v>1.061333744992969e-11</v>
       </c>
       <c r="G21" t="n">
-        <v>2.221741967325171e-14</v>
+        <v>2.220169878580461e-14</v>
       </c>
       <c r="H21" t="n">
-        <v>2.221741967325171e-14</v>
+        <v>2.220169878580461e-14</v>
       </c>
       <c r="I21" t="n">
-        <v>4.161508938801615e-05</v>
+        <v>0.9981239991519164</v>
       </c>
       <c r="J21" t="n">
-        <v>2.221741967325171e-14</v>
+        <v>2.220169878580461e-14</v>
       </c>
       <c r="K21" t="n">
-        <v>2.221741967325171e-14</v>
+        <v>2.220169878580461e-14</v>
       </c>
       <c r="L21" t="n">
-        <v>6.282631649226724e-06</v>
+        <v>5.332704452620426e-14</v>
       </c>
       <c r="M21" t="n">
-        <v>2.221741967325171e-14</v>
+        <v>2.220169878580461e-14</v>
       </c>
       <c r="N21" t="n">
-        <v>2.221741967325171e-14</v>
+        <v>2.220169878580461e-14</v>
       </c>
       <c r="O21" t="n">
-        <v>2.221741967325171e-14</v>
+        <v>2.220169878580461e-14</v>
       </c>
       <c r="P21" t="n">
-        <v>2.221741967325171e-14</v>
+        <v>2.220169878580461e-14</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.999952098465871</v>
+        <v>0.9981239991519164</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG217.fasta</t>
+          <t>RUG267.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999906317730299</v>
+        <v>0.9999889476160166</v>
       </c>
       <c r="C22" t="n">
-        <v>2.220444676507917e-14</v>
+        <v>2.220467138216154e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>2.220444676507917e-14</v>
+        <v>2.220467138216154e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>9.360732601807078e-06</v>
+        <v>2.438421794237297e-10</v>
       </c>
       <c r="F22" t="n">
-        <v>2.635726028824804e-12</v>
+        <v>3.145074192282388e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>2.220444676507917e-14</v>
+        <v>2.220467138216154e-14</v>
       </c>
       <c r="H22" t="n">
-        <v>2.220444676507917e-14</v>
+        <v>2.220467138216154e-14</v>
       </c>
       <c r="I22" t="n">
-        <v>2.220444676507917e-14</v>
+        <v>1.963579382240244e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>2.220444676507917e-14</v>
+        <v>2.220467138216154e-14</v>
       </c>
       <c r="K22" t="n">
-        <v>2.220444676507917e-14</v>
+        <v>2.220467138216153e-14</v>
       </c>
       <c r="L22" t="n">
-        <v>7.491488289676165e-09</v>
+        <v>1.105213940823861e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>2.220444676507917e-14</v>
+        <v>2.220467138216153e-14</v>
       </c>
       <c r="N22" t="n">
-        <v>2.220444676507917e-14</v>
+        <v>2.220467138216153e-14</v>
       </c>
       <c r="O22" t="n">
-        <v>2.220444676507917e-14</v>
+        <v>2.220467138216153e-14</v>
       </c>
       <c r="P22" t="n">
-        <v>2.220444676507917e-14</v>
+        <v>2.220467138216153e-14</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9999906317730299</v>
+        <v>0.9999889476160166</v>
       </c>
       <c r="R22" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -1899,63 +1789,58 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG218.fasta</t>
+          <t>RUG270.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.999947059677924</v>
+        <v>0.9999768118833633</v>
       </c>
       <c r="C23" t="n">
-        <v>2.22043827869774e-14</v>
+        <v>2.220442644735064e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>2.22043827869774e-14</v>
+        <v>2.220442644735064e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>5.293914843549244e-05</v>
+        <v>2.318407863132397e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>2.157280556041606e-13</v>
+        <v>1.688351711865482e-13</v>
       </c>
       <c r="G23" t="n">
-        <v>2.22043827869774e-14</v>
+        <v>2.220442644735064e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>2.22043827869774e-14</v>
+        <v>2.220442644735064e-14</v>
       </c>
       <c r="I23" t="n">
-        <v>1.312328108199026e-11</v>
+        <v>2.221420311173312e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>2.22043827869774e-14</v>
+        <v>2.220442644735064e-14</v>
       </c>
       <c r="K23" t="n">
-        <v>2.22043827869774e-14</v>
+        <v>2.220442644735064e-14</v>
       </c>
       <c r="L23" t="n">
-        <v>1.16007924114308e-09</v>
+        <v>4.037392593633917e-09</v>
       </c>
       <c r="M23" t="n">
-        <v>2.22043827869774e-14</v>
+        <v>2.220442644735064e-14</v>
       </c>
       <c r="N23" t="n">
-        <v>2.22043827869774e-14</v>
+        <v>2.220442644735064e-14</v>
       </c>
       <c r="O23" t="n">
-        <v>2.22043827869774e-14</v>
+        <v>2.220442644735064e-14</v>
       </c>
       <c r="P23" t="n">
-        <v>2.22043827869774e-14</v>
+        <v>2.220442644735064e-14</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.999947059677924</v>
+        <v>0.9999768118833633</v>
       </c>
       <c r="R23" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -1964,258 +1849,238 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RUG220.fasta</t>
+          <t>RUG271.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.060631115319074e-06</v>
+        <v>0.999976415260305</v>
       </c>
       <c r="C24" t="n">
-        <v>2.220057872152466e-14</v>
+        <v>2.220442576496992e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220057872152466e-14</v>
+        <v>2.220442576496992e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002873129872705612</v>
+        <v>2.358235344801491e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>8.341796378404237e-13</v>
+        <v>2.000225381355826e-13</v>
       </c>
       <c r="G24" t="n">
-        <v>2.220057872152466e-14</v>
+        <v>2.220442576496992e-14</v>
       </c>
       <c r="H24" t="n">
-        <v>2.220057872152466e-14</v>
+        <v>2.220442576496992e-14</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9971198093651984</v>
+        <v>1.810488024465101e-13</v>
       </c>
       <c r="J24" t="n">
-        <v>2.220057872152466e-14</v>
+        <v>2.220442576496992e-14</v>
       </c>
       <c r="K24" t="n">
-        <v>2.220057872152466e-14</v>
+        <v>2.220442576496992e-14</v>
       </c>
       <c r="L24" t="n">
-        <v>1.299244242532769e-10</v>
+        <v>2.385644056558314e-09</v>
       </c>
       <c r="M24" t="n">
-        <v>2.220057872152466e-14</v>
+        <v>2.220442576496992e-14</v>
       </c>
       <c r="N24" t="n">
-        <v>2.220057872152466e-14</v>
+        <v>2.220442576496992e-14</v>
       </c>
       <c r="O24" t="n">
-        <v>2.220057872152466e-14</v>
+        <v>2.220442576496992e-14</v>
       </c>
       <c r="P24" t="n">
-        <v>2.220057872152466e-14</v>
+        <v>2.220442576496992e-14</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9971198093651984</v>
+        <v>0.999976415260305</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RUG221.fasta</t>
+          <t>RUG277.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.002613113297253938</v>
+        <v>0.9999756949544512</v>
       </c>
       <c r="C25" t="n">
-        <v>2.22006220521022e-14</v>
+        <v>2.220442487578244e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>2.22006220521022e-14</v>
+        <v>2.220442487578244e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>2.337764340141055e-10</v>
+        <v>2.430402653084448e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>1.067432451277482e-13</v>
+        <v>1.481744158577901e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>2.22006220521022e-14</v>
+        <v>2.220442487578244e-14</v>
       </c>
       <c r="H25" t="n">
-        <v>2.22006220521022e-14</v>
+        <v>2.220442487578244e-14</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9973868864686186</v>
+        <v>1.307196163349868e-12</v>
       </c>
       <c r="J25" t="n">
-        <v>2.22006220521022e-14</v>
+        <v>2.220442487578244e-14</v>
       </c>
       <c r="K25" t="n">
-        <v>2.22006220521022e-14</v>
+        <v>2.220442487578244e-14</v>
       </c>
       <c r="L25" t="n">
-        <v>2.22006220521022e-14</v>
+        <v>1.017340579584002e-09</v>
       </c>
       <c r="M25" t="n">
-        <v>2.22006220521022e-14</v>
+        <v>2.220442487578244e-14</v>
       </c>
       <c r="N25" t="n">
-        <v>2.22006220521022e-14</v>
+        <v>2.220442487578244e-14</v>
       </c>
       <c r="O25" t="n">
-        <v>2.22006220521022e-14</v>
+        <v>2.220442487578244e-14</v>
       </c>
       <c r="P25" t="n">
-        <v>2.22006220521022e-14</v>
+        <v>2.220442487578244e-14</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9973868864686186</v>
+        <v>0.9999756949544512</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RUG230.fasta</t>
+          <t>RUG282.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999896000798822</v>
+        <v>0.002298985202836562</v>
       </c>
       <c r="C26" t="n">
-        <v>2.223152554458328e-14</v>
+        <v>2.220105481389955e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>2.223152554458328e-14</v>
+        <v>2.220105481389955e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>1.000901887001393e-05</v>
+        <v>4.155778479956415e-08</v>
       </c>
       <c r="F26" t="n">
-        <v>1.635966207983591e-12</v>
+        <v>6.989710702294195e-13</v>
       </c>
       <c r="G26" t="n">
-        <v>2.223152554458328e-14</v>
+        <v>2.220105481389955e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>2.223152554458328e-14</v>
+        <v>2.220105481389955e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>3.684534809064543e-07</v>
+        <v>0.9976028421867457</v>
       </c>
       <c r="J26" t="n">
-        <v>2.223152554458327e-14</v>
+        <v>2.220105481389955e-14</v>
       </c>
       <c r="K26" t="n">
-        <v>2.223152554458327e-14</v>
+        <v>2.220105481389955e-14</v>
       </c>
       <c r="L26" t="n">
-        <v>2.244590891159215e-08</v>
+        <v>9.813105171181604e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>2.223152554458327e-14</v>
+        <v>2.220105481389955e-14</v>
       </c>
       <c r="N26" t="n">
-        <v>2.223152554458327e-14</v>
+        <v>2.220105481389955e-14</v>
       </c>
       <c r="O26" t="n">
-        <v>2.223152554458327e-14</v>
+        <v>2.220105481389955e-14</v>
       </c>
       <c r="P26" t="n">
-        <v>2.223152554458327e-14</v>
+        <v>2.220105481389955e-14</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.9999896000798822</v>
+        <v>0.9976028421867457</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RUG248.fasta</t>
+          <t>RUG291.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9975971715991954</v>
+        <v>0.9999531298124792</v>
       </c>
       <c r="C27" t="n">
-        <v>2.220231523054803e-14</v>
+        <v>2.220440243991016e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>2.220231523054803e-14</v>
+        <v>2.220440243991016e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001760800134188278</v>
+        <v>4.634770114500469e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>4.544273723552222e-13</v>
+        <v>1.678707716532152e-08</v>
       </c>
       <c r="G27" t="n">
-        <v>2.220231523054803e-14</v>
+        <v>2.220440243991016e-14</v>
       </c>
       <c r="H27" t="n">
-        <v>2.220231523054803e-14</v>
+        <v>2.220440243991016e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>8.937214081602132e-10</v>
+        <v>2.220440243991016e-14</v>
       </c>
       <c r="J27" t="n">
-        <v>2.220231523054803e-14</v>
+        <v>2.220440243991016e-14</v>
       </c>
       <c r="K27" t="n">
-        <v>2.220231523054803e-14</v>
+        <v>2.220440243991016e-14</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0006420273722184686</v>
+        <v>5.05699054486654e-07</v>
       </c>
       <c r="M27" t="n">
-        <v>2.220231523054803e-14</v>
+        <v>2.220440243991016e-14</v>
       </c>
       <c r="N27" t="n">
-        <v>2.220231523054803e-14</v>
+        <v>2.220440243991016e-14</v>
       </c>
       <c r="O27" t="n">
-        <v>2.220231523054803e-14</v>
+        <v>2.220440243991016e-14</v>
       </c>
       <c r="P27" t="n">
-        <v>2.220231523054803e-14</v>
+        <v>2.220440243991016e-14</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9975971715991954</v>
+        <v>0.9999531298124792</v>
       </c>
       <c r="R27" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -2224,128 +2089,118 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>RUG267.fasta</t>
+          <t>RUG313.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9999770558060938</v>
+        <v>1.141994966961064e-08</v>
       </c>
       <c r="C28" t="n">
-        <v>2.220531145980033e-14</v>
+        <v>2.22006019399244e-14</v>
       </c>
       <c r="D28" t="n">
-        <v>2.220531145980034e-14</v>
+        <v>2.22006019399244e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>7.292664911264437e-11</v>
+        <v>0.005551319152371366</v>
       </c>
       <c r="F28" t="n">
-        <v>2.922658391195832e-13</v>
+        <v>1.170268711450437e-12</v>
       </c>
       <c r="G28" t="n">
-        <v>2.220531145980033e-14</v>
+        <v>2.22006019399244e-14</v>
       </c>
       <c r="H28" t="n">
-        <v>2.220531145980033e-14</v>
+        <v>2.22006019399244e-14</v>
       </c>
       <c r="I28" t="n">
-        <v>1.011909200124741e-12</v>
+        <v>0.9944486692997455</v>
       </c>
       <c r="J28" t="n">
-        <v>2.220531145980033e-14</v>
+        <v>2.22006019399244e-14</v>
       </c>
       <c r="K28" t="n">
-        <v>2.220531145980033e-14</v>
+        <v>2.22006019399244e-14</v>
       </c>
       <c r="L28" t="n">
-        <v>2.294411945358259e-05</v>
+        <v>1.265411049320638e-10</v>
       </c>
       <c r="M28" t="n">
-        <v>2.220531145980033e-14</v>
+        <v>2.22006019399244e-14</v>
       </c>
       <c r="N28" t="n">
-        <v>2.220531145980033e-14</v>
+        <v>2.22006019399244e-14</v>
       </c>
       <c r="O28" t="n">
-        <v>2.220531145980033e-14</v>
+        <v>2.22006019399244e-14</v>
       </c>
       <c r="P28" t="n">
-        <v>2.220531145980033e-14</v>
+        <v>2.22006019399244e-14</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9999770558060938</v>
+        <v>0.9944486692997455</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>RUG270.fasta</t>
+          <t>RUG327.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.999991520231611</v>
+        <v>0.9999998924132101</v>
       </c>
       <c r="C29" t="n">
-        <v>2.220445113265583e-14</v>
+        <v>2.220447002003706e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>2.220445113265583e-14</v>
+        <v>2.220447002003706e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>8.46758195286712e-06</v>
+        <v>1.947335160237678e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>4.909159102479769e-13</v>
+        <v>2.220447002003707e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>2.220445113265583e-14</v>
+        <v>2.220447002003706e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>2.220445113265583e-14</v>
+        <v>2.220447002003706e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>6.935513672546952e-12</v>
+        <v>2.595913310538783e-10</v>
       </c>
       <c r="J29" t="n">
-        <v>2.220445113265583e-14</v>
+        <v>2.220447002003706e-14</v>
       </c>
       <c r="K29" t="n">
-        <v>2.220445113265583e-14</v>
+        <v>2.220447002003706e-14</v>
       </c>
       <c r="L29" t="n">
-        <v>1.217878747315669e-08</v>
+        <v>1.071322208052961e-07</v>
       </c>
       <c r="M29" t="n">
-        <v>2.220445113265583e-14</v>
+        <v>2.220447002003706e-14</v>
       </c>
       <c r="N29" t="n">
-        <v>2.220445113265583e-14</v>
+        <v>2.220447002003706e-14</v>
       </c>
       <c r="O29" t="n">
-        <v>2.220445113265583e-14</v>
+        <v>2.220447002003706e-14</v>
       </c>
       <c r="P29" t="n">
-        <v>2.220445113265583e-14</v>
+        <v>2.220447002003706e-14</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.999991520231611</v>
+        <v>0.9999998924132101</v>
       </c>
       <c r="R29" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -2354,128 +2209,118 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>RUG271.fasta</t>
+          <t>RUG332.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9999517506237328</v>
+        <v>5.178052518915279e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>2.220439129275154e-14</v>
+        <v>2.22044532873893e-14</v>
       </c>
       <c r="D30" t="n">
-        <v>2.220439129275154e-14</v>
+        <v>3.711432381756797e-10</v>
       </c>
       <c r="E30" t="n">
-        <v>4.824919113081888e-05</v>
+        <v>2.22044532873893e-14</v>
       </c>
       <c r="F30" t="n">
-        <v>3.419308489891944e-13</v>
+        <v>1.78689553127703e-07</v>
       </c>
       <c r="G30" t="n">
-        <v>2.220439129275154e-14</v>
+        <v>2.22044532873893e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>2.220439129275154e-14</v>
+        <v>2.22044532873893e-14</v>
       </c>
       <c r="I30" t="n">
-        <v>1.128411692114603e-10</v>
+        <v>0.9999944305827009</v>
       </c>
       <c r="J30" t="n">
-        <v>2.220439129275154e-14</v>
+        <v>2.22044532873893e-14</v>
       </c>
       <c r="K30" t="n">
-        <v>2.220439129275154e-14</v>
+        <v>2.22044532873893e-14</v>
       </c>
       <c r="L30" t="n">
-        <v>7.173136268165813e-11</v>
+        <v>2.12303861850865e-07</v>
       </c>
       <c r="M30" t="n">
-        <v>2.220439129275154e-14</v>
+        <v>2.22044532873893e-14</v>
       </c>
       <c r="N30" t="n">
-        <v>2.220439129275154e-14</v>
+        <v>2.22044532873893e-14</v>
       </c>
       <c r="O30" t="n">
-        <v>2.220439129275154e-14</v>
+        <v>2.22044532873893e-14</v>
       </c>
       <c r="P30" t="n">
-        <v>2.220439129275154e-14</v>
+        <v>2.22044532873893e-14</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.9999517506237328</v>
+        <v>0.9999944305827009</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>RUG277.fasta</t>
+          <t>RUG341.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9999781996810205</v>
+        <v>0.999978243356311</v>
       </c>
       <c r="C31" t="n">
-        <v>2.220442949985691e-14</v>
+        <v>2.220442855401245e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>2.220442949985691e-14</v>
+        <v>2.220442855401245e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>2.179798092172037e-05</v>
+        <v>2.175394125782944e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>2.245402296431187e-13</v>
+        <v>1.654197515025785e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>2.220442949985691e-14</v>
+        <v>2.220442855401245e-14</v>
       </c>
       <c r="H31" t="n">
-        <v>2.220442949985691e-14</v>
+        <v>2.220442855401245e-14</v>
       </c>
       <c r="I31" t="n">
-        <v>9.27893803922305e-12</v>
+        <v>5.816321335406264e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>2.220442949985691e-14</v>
+        <v>2.220442855401245e-14</v>
       </c>
       <c r="K31" t="n">
-        <v>2.220442949985691e-14</v>
+        <v>2.220442855401245e-14</v>
       </c>
       <c r="L31" t="n">
-        <v>2.328332311460258e-09</v>
+        <v>2.701461983237452e-09</v>
       </c>
       <c r="M31" t="n">
-        <v>2.220442949985691e-14</v>
+        <v>2.220442855401245e-14</v>
       </c>
       <c r="N31" t="n">
-        <v>2.220442949985691e-14</v>
+        <v>2.220442855401245e-14</v>
       </c>
       <c r="O31" t="n">
-        <v>2.220442949985691e-14</v>
+        <v>2.220442855401245e-14</v>
       </c>
       <c r="P31" t="n">
-        <v>2.220442949985691e-14</v>
+        <v>2.220442855401245e-14</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9999781996810205</v>
+        <v>0.999978243356311</v>
       </c>
       <c r="R31" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -2484,63 +2329,58 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>RUG282.fasta</t>
+          <t>RUG342.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.004544347199364102</v>
+        <v>1.275148986381901e-08</v>
       </c>
       <c r="C32" t="n">
-        <v>2.220060717604588e-14</v>
+        <v>2.220446001767775e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>2.220060717604588e-14</v>
+        <v>2.220446001767775e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>1.154200906088222e-08</v>
+        <v>1.069392598695648e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>5.742755963820084e-12</v>
+        <v>2.220446001767775e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>2.220060717604588e-14</v>
+        <v>2.220446001767775e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>2.220060717604588e-14</v>
+        <v>2.220446001767775e-14</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9954297591665683</v>
+        <v>0.999999667788721</v>
       </c>
       <c r="J32" t="n">
-        <v>2.220060717604588e-14</v>
+        <v>2.220446001767775e-14</v>
       </c>
       <c r="K32" t="n">
-        <v>2.220060717604588e-14</v>
+        <v>2.220446001767775e-14</v>
       </c>
       <c r="L32" t="n">
-        <v>2.588208609363294e-05</v>
+        <v>3.194594380315911e-07</v>
       </c>
       <c r="M32" t="n">
-        <v>2.220060717604588e-14</v>
+        <v>2.220446001767775e-14</v>
       </c>
       <c r="N32" t="n">
-        <v>2.220060717604588e-14</v>
+        <v>2.220446001767775e-14</v>
       </c>
       <c r="O32" t="n">
-        <v>2.220060717604588e-14</v>
+        <v>2.220446001767775e-14</v>
       </c>
       <c r="P32" t="n">
-        <v>2.220060717604588e-14</v>
+        <v>2.220446001767775e-14</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.9954297591665683</v>
+        <v>0.999999667788721</v>
       </c>
       <c r="R32" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
         <is>
           <t>f__Oscillospiraceae</t>
         </is>
@@ -2549,128 +2389,118 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>RUG290.fasta</t>
+          <t>RUG364.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9983639023010865</v>
+        <v>6.855913033583359e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>2.22023573265028e-14</v>
+        <v>2.220113806903061e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>2.22023573265028e-14</v>
+        <v>2.220113806903061e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>1.095348316584525e-05</v>
+        <v>1.250664350417043e-10</v>
       </c>
       <c r="F33" t="n">
-        <v>7.240481225261125e-11</v>
+        <v>0.002195543232418097</v>
       </c>
       <c r="G33" t="n">
-        <v>2.22023573265028e-14</v>
+        <v>2.220113806903061e-14</v>
       </c>
       <c r="H33" t="n">
-        <v>2.22023573265028e-14</v>
+        <v>2.220113806903061e-14</v>
       </c>
       <c r="I33" t="n">
-        <v>1.639526599053319e-09</v>
+        <v>2.58889199593055e-07</v>
       </c>
       <c r="J33" t="n">
-        <v>2.22023573265028e-14</v>
+        <v>2.220113806903061e-14</v>
       </c>
       <c r="K33" t="n">
-        <v>2.22023573265028e-14</v>
+        <v>2.220113806903061e-14</v>
       </c>
       <c r="L33" t="n">
-        <v>0.001625142503594195</v>
+        <v>0.9977356386227579</v>
       </c>
       <c r="M33" t="n">
-        <v>2.22023573265028e-14</v>
+        <v>2.220113806903061e-14</v>
       </c>
       <c r="N33" t="n">
-        <v>2.22023573265028e-14</v>
+        <v>2.220113806903061e-14</v>
       </c>
       <c r="O33" t="n">
-        <v>2.22023573265028e-14</v>
+        <v>2.220113806903061e-14</v>
       </c>
       <c r="P33" t="n">
-        <v>2.22023573265028e-14</v>
+        <v>2.220113806903061e-14</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.9983639023010865</v>
+        <v>0.9977356386227579</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Ruminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>RUG291.fasta</t>
+          <t>RUG365.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9999793117399158</v>
+        <v>0.9999788055338663</v>
       </c>
       <c r="C34" t="n">
-        <v>2.220443195679564e-14</v>
+        <v>2.220442934142793e-14</v>
       </c>
       <c r="D34" t="n">
-        <v>2.220443195679564e-14</v>
+        <v>2.220442934142793e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>2.050177547780516e-05</v>
+        <v>2.119209103496956e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>5.604655442244325e-08</v>
+        <v>1.679951084176081e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>2.220443195679564e-14</v>
+        <v>2.220442934142793e-14</v>
       </c>
       <c r="H34" t="n">
-        <v>2.220443195679564e-14</v>
+        <v>2.220442934142793e-14</v>
       </c>
       <c r="I34" t="n">
-        <v>2.220443195679564e-14</v>
+        <v>7.728983761291016e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>2.220443195679564e-14</v>
+        <v>2.220442934142793e-14</v>
       </c>
       <c r="K34" t="n">
-        <v>2.220443195679564e-14</v>
+        <v>2.220442934142793e-14</v>
       </c>
       <c r="L34" t="n">
-        <v>1.304378077335069e-07</v>
+        <v>2.373935658623523e-09</v>
       </c>
       <c r="M34" t="n">
-        <v>2.220443195679564e-14</v>
+        <v>2.220442934142793e-14</v>
       </c>
       <c r="N34" t="n">
-        <v>2.220443195679564e-14</v>
+        <v>2.220442934142793e-14</v>
       </c>
       <c r="O34" t="n">
-        <v>2.220443195679564e-14</v>
+        <v>2.220442934142793e-14</v>
       </c>
       <c r="P34" t="n">
-        <v>2.220443195679564e-14</v>
+        <v>2.220442934142793e-14</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.9999793117399158</v>
+        <v>0.9999788055338663</v>
       </c>
       <c r="R34" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -2679,63 +2509,58 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>RUG299.fasta</t>
+          <t>RUG385.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9999994737624722</v>
+        <v>0.9999754330428623</v>
       </c>
       <c r="C35" t="n">
-        <v>2.220445972268825e-14</v>
+        <v>2.220442446920869e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>2.220445972268825e-14</v>
+        <v>2.220442446920869e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>5.140996494694389e-07</v>
+        <v>2.456514789429011e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>1.213430486911771e-08</v>
+        <v>1.565236644907308e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>2.220445972268825e-14</v>
+        <v>2.220442446920869e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>2.220445972268825e-14</v>
+        <v>2.220442446920869e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>1.681349689290861e-12</v>
+        <v>1.135313186898267e-12</v>
       </c>
       <c r="J35" t="n">
-        <v>2.220445972268825e-14</v>
+        <v>2.220442446920869e-14</v>
       </c>
       <c r="K35" t="n">
-        <v>2.220445972268825e-14</v>
+        <v>2.220442446920869e-14</v>
       </c>
       <c r="L35" t="n">
-        <v>1.670084431890107e-12</v>
+        <v>1.807729493967285e-09</v>
       </c>
       <c r="M35" t="n">
-        <v>2.220445972268825e-14</v>
+        <v>2.220442446920869e-14</v>
       </c>
       <c r="N35" t="n">
-        <v>2.220445972268825e-14</v>
+        <v>2.220442446920869e-14</v>
       </c>
       <c r="O35" t="n">
-        <v>2.220445972268825e-14</v>
+        <v>2.220442446920869e-14</v>
       </c>
       <c r="P35" t="n">
-        <v>2.220445972268825e-14</v>
+        <v>2.220442446920869e-14</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.9999994737624722</v>
+        <v>0.9999754330428623</v>
       </c>
       <c r="R35" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -2744,128 +2569,118 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>RUG320.fasta</t>
+          <t>RUG393.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.013399810957135</v>
+        <v>0.0001055879467796029</v>
       </c>
       <c r="C36" t="n">
-        <v>2.258081299537154e-14</v>
+        <v>2.220430424010156e-14</v>
       </c>
       <c r="D36" t="n">
-        <v>2.258081299537154e-14</v>
+        <v>2.220430424010156e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>6.364853392145675e-10</v>
+        <v>1.261416697814831e-13</v>
       </c>
       <c r="F36" t="n">
-        <v>1.240972259426511e-11</v>
+        <v>8.558021969639501e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>2.258081299537168e-14</v>
+        <v>2.220430424010156e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>2.258081299537168e-14</v>
+        <v>2.220430424010156e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9861947359527519</v>
+        <v>2.220430424010156e-14</v>
       </c>
       <c r="J36" t="n">
-        <v>2.258081299537168e-14</v>
+        <v>2.220430424010156e-14</v>
       </c>
       <c r="K36" t="n">
-        <v>2.258081299537163e-14</v>
+        <v>2.220430424010156e-14</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0004054524409925498</v>
+        <v>0.9998944120527644</v>
       </c>
       <c r="M36" t="n">
-        <v>2.258081299537163e-14</v>
+        <v>2.220430424010156e-14</v>
       </c>
       <c r="N36" t="n">
-        <v>2.258081299537163e-14</v>
+        <v>2.220430424010156e-14</v>
       </c>
       <c r="O36" t="n">
-        <v>2.258081299537163e-14</v>
+        <v>2.220430424010156e-14</v>
       </c>
       <c r="P36" t="n">
-        <v>2.258081299537163e-14</v>
+        <v>2.220430424010156e-14</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.9861947359527519</v>
+        <v>0.9998944120527644</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Ruminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>RUG327.fasta</t>
+          <t>RUG426.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9999995607224961</v>
+        <v>0.9999816068161039</v>
       </c>
       <c r="C37" t="n">
-        <v>2.220448630787586e-14</v>
+        <v>2.220443363312951e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>2.220448630787586e-14</v>
+        <v>2.220443363312951e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>1.874557378200207e-10</v>
+        <v>1.83921497829798e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>2.22044863078759e-14</v>
+        <v>1.823756276794556e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>2.220448630787586e-14</v>
+        <v>2.220443363312951e-14</v>
       </c>
       <c r="H37" t="n">
-        <v>2.220448630787586e-14</v>
+        <v>2.220443363312951e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>6.187274250619095e-09</v>
+        <v>4.352025862383651e-12</v>
       </c>
       <c r="J37" t="n">
-        <v>2.220448630787586e-14</v>
+        <v>2.220443363312951e-14</v>
       </c>
       <c r="K37" t="n">
-        <v>2.220448630787586e-14</v>
+        <v>2.220443363312951e-14</v>
       </c>
       <c r="L37" t="n">
-        <v>4.329025296998753e-07</v>
+        <v>1.029356581926295e-09</v>
       </c>
       <c r="M37" t="n">
-        <v>2.220448630787586e-14</v>
+        <v>2.220443363312951e-14</v>
       </c>
       <c r="N37" t="n">
-        <v>2.220448630787586e-14</v>
+        <v>2.220443363312951e-14</v>
       </c>
       <c r="O37" t="n">
-        <v>2.220448630787586e-14</v>
+        <v>2.220443363312951e-14</v>
       </c>
       <c r="P37" t="n">
-        <v>2.220448630787586e-14</v>
+        <v>2.220443363312951e-14</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.9999995607224961</v>
+        <v>0.9999816068161039</v>
       </c>
       <c r="R37" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -2874,388 +2689,358 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>RUG332.fasta</t>
+          <t>RUG460.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.25971175652831e-05</v>
+        <v>8.028359220268418e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>2.220444151555929e-14</v>
+        <v>2.22009972142247e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>3.803664296783561e-09</v>
+        <v>2.22009972142247e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>4.161917678894397e-14</v>
+        <v>1.212068954646447e-10</v>
       </c>
       <c r="F38" t="n">
-        <v>5.453715781753555e-07</v>
+        <v>0.002281289988422606</v>
       </c>
       <c r="G38" t="n">
-        <v>2.220444151555929e-14</v>
+        <v>2.22009972142247e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>2.220444151555929e-14</v>
+        <v>2.22009972142247e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9999868302141143</v>
+        <v>6.993345494623424e-07</v>
       </c>
       <c r="J38" t="n">
-        <v>2.220444151555929e-14</v>
+        <v>2.22009972142247e-14</v>
       </c>
       <c r="K38" t="n">
-        <v>2.220444151555929e-14</v>
+        <v>2.22009972142247e-14</v>
       </c>
       <c r="L38" t="n">
-        <v>2.349283657934982e-08</v>
+        <v>0.9976377269633963</v>
       </c>
       <c r="M38" t="n">
-        <v>2.220444151555929e-14</v>
+        <v>2.22009972142247e-14</v>
       </c>
       <c r="N38" t="n">
-        <v>2.220444151555929e-14</v>
+        <v>2.22009972142247e-14</v>
       </c>
       <c r="O38" t="n">
-        <v>2.220444151555929e-14</v>
+        <v>2.22009972142247e-14</v>
       </c>
       <c r="P38" t="n">
-        <v>2.220444151555929e-14</v>
+        <v>2.22009972142247e-14</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.9999868302141143</v>
+        <v>0.9976377269633963</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Ruminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>RUG341.fasta</t>
+          <t>RUG467.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9999525163390611</v>
+        <v>0.0001486890522418975</v>
       </c>
       <c r="C39" t="n">
-        <v>2.220439192473658e-14</v>
+        <v>2.220404370839408e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>2.220439192473658e-14</v>
+        <v>2.220404370839408e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>4.748352169730849e-05</v>
+        <v>2.407659858786969e-11</v>
       </c>
       <c r="F39" t="n">
-        <v>4.033243105809152e-13</v>
+        <v>5.652735281497725e-10</v>
       </c>
       <c r="G39" t="n">
-        <v>2.220439192473658e-14</v>
+        <v>2.220404370839408e-14</v>
       </c>
       <c r="H39" t="n">
-        <v>2.220439192473658e-14</v>
+        <v>2.220404370839408e-14</v>
       </c>
       <c r="I39" t="n">
-        <v>2.028812043303262e-11</v>
+        <v>0.9997181140503589</v>
       </c>
       <c r="J39" t="n">
-        <v>2.220439192473658e-14</v>
+        <v>2.220404370839408e-14</v>
       </c>
       <c r="K39" t="n">
-        <v>2.220439192473658e-14</v>
+        <v>2.220404370839408e-14</v>
       </c>
       <c r="L39" t="n">
-        <v>1.183280685696824e-10</v>
+        <v>0.0001331963078268781</v>
       </c>
       <c r="M39" t="n">
-        <v>2.220439192473658e-14</v>
+        <v>2.220404370839408e-14</v>
       </c>
       <c r="N39" t="n">
-        <v>2.220439192473658e-14</v>
+        <v>2.220404370839408e-14</v>
       </c>
       <c r="O39" t="n">
-        <v>2.220439192473658e-14</v>
+        <v>2.220404370839408e-14</v>
       </c>
       <c r="P39" t="n">
-        <v>2.220439192473658e-14</v>
+        <v>2.220404370839408e-14</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.9999525163390611</v>
+        <v>0.9997181140503589</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>RUG342.fasta</t>
+          <t>RUG468.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.755378077524958e-07</v>
+        <v>0.9999745054266717</v>
       </c>
       <c r="C40" t="n">
-        <v>2.220445473925611e-14</v>
+        <v>2.220442314661576e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>2.220445473925611e-14</v>
+        <v>2.220442314661576e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>1.085887150351703e-10</v>
+        <v>2.54933189406942e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>2.220445473925611e-14</v>
+        <v>1.792699035457583e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>2.220445473925611e-14</v>
+        <v>2.220442314661576e-14</v>
       </c>
       <c r="H40" t="n">
-        <v>2.220445473925611e-14</v>
+        <v>2.220442314661576e-14</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9999959259076682</v>
+        <v>1.757801566862097e-12</v>
       </c>
       <c r="J40" t="n">
-        <v>2.220445473925611e-14</v>
+        <v>2.220442314661576e-14</v>
       </c>
       <c r="K40" t="n">
-        <v>2.220445473925611e-14</v>
+        <v>2.220442314661576e-14</v>
       </c>
       <c r="L40" t="n">
-        <v>3.798445691007608e-06</v>
+        <v>1.252228612755725e-09</v>
       </c>
       <c r="M40" t="n">
-        <v>2.220445473925611e-14</v>
+        <v>2.220442314661576e-14</v>
       </c>
       <c r="N40" t="n">
-        <v>2.220445473925611e-14</v>
+        <v>2.220442314661576e-14</v>
       </c>
       <c r="O40" t="n">
-        <v>2.220445473925611e-14</v>
+        <v>2.220442314661576e-14</v>
       </c>
       <c r="P40" t="n">
-        <v>2.220445473925611e-14</v>
+        <v>2.220442314661576e-14</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.9999959259076682</v>
+        <v>0.9999745054266717</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>RUG364.fasta</t>
+          <t>RUG475.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.032659983287157e-06</v>
+        <v>0.9990509856767172</v>
       </c>
       <c r="C41" t="n">
-        <v>2.220322402677219e-14</v>
+        <v>2.224662099696774e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>2.220322402677219e-14</v>
+        <v>2.224662099696774e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>8.942703141307433e-11</v>
+        <v>1.209374470472016e-07</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0008252976887193198</v>
+        <v>1.382694761425204e-10</v>
       </c>
       <c r="G41" t="n">
-        <v>2.220322402677219e-14</v>
+        <v>2.224662099696774e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>2.220322402677219e-14</v>
+        <v>2.224662099696774e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>4.89049764060803e-06</v>
+        <v>1.424333102764125e-13</v>
       </c>
       <c r="J41" t="n">
-        <v>2.220322402677219e-14</v>
+        <v>2.224662099696774e-14</v>
       </c>
       <c r="K41" t="n">
-        <v>2.220322402677219e-14</v>
+        <v>2.224662099696774e-14</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9991607790640078</v>
+        <v>0.0009488932472017203</v>
       </c>
       <c r="M41" t="n">
-        <v>2.220322402677219e-14</v>
+        <v>2.224662099696774e-14</v>
       </c>
       <c r="N41" t="n">
-        <v>2.220322402677219e-14</v>
+        <v>2.224662099696774e-14</v>
       </c>
       <c r="O41" t="n">
-        <v>2.220322402677219e-14</v>
+        <v>2.224662099696774e-14</v>
       </c>
       <c r="P41" t="n">
-        <v>2.220322402677219e-14</v>
+        <v>2.224662099696774e-14</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.9991607790640078</v>
+        <v>0.9990509856767172</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>RUG365.fasta</t>
+          <t>RUG498.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9999695524896095</v>
+        <v>3.979718718411356e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>2.220441640792324e-14</v>
+        <v>2.220434400271317e-14</v>
       </c>
       <c r="D42" t="n">
-        <v>2.220441640792324e-14</v>
+        <v>2.220434400271317e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>3.044478509354194e-05</v>
+        <v>2.220434400271317e-14</v>
       </c>
       <c r="F42" t="n">
-        <v>6.48637386479084e-13</v>
+        <v>1.485230779439305e-10</v>
       </c>
       <c r="G42" t="n">
-        <v>2.220441640792324e-14</v>
+        <v>2.220434400271317e-14</v>
       </c>
       <c r="H42" t="n">
-        <v>2.220441640792324e-14</v>
+        <v>2.220434400271317e-14</v>
       </c>
       <c r="I42" t="n">
-        <v>3.543811959534666e-13</v>
+        <v>0.9999212881546561</v>
       </c>
       <c r="J42" t="n">
-        <v>2.220441640792324e-14</v>
+        <v>2.220434400271317e-14</v>
       </c>
       <c r="K42" t="n">
-        <v>2.220441640792324e-14</v>
+        <v>2.220434400271317e-14</v>
       </c>
       <c r="L42" t="n">
-        <v>2.724072040262584e-09</v>
+        <v>3.891450939239814e-05</v>
       </c>
       <c r="M42" t="n">
-        <v>2.220441640792324e-14</v>
+        <v>2.220434400271317e-14</v>
       </c>
       <c r="N42" t="n">
-        <v>2.220441640792324e-14</v>
+        <v>2.220434400271317e-14</v>
       </c>
       <c r="O42" t="n">
-        <v>2.220441640792324e-14</v>
+        <v>2.220434400271317e-14</v>
       </c>
       <c r="P42" t="n">
-        <v>2.220441640792324e-14</v>
+        <v>2.220434400271317e-14</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.9999695524896095</v>
+        <v>0.9999212881546561</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>RUG370.fasta</t>
+          <t>RUG509.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9999396748640295</v>
+        <v>0.9999790545996143</v>
       </c>
       <c r="C43" t="n">
-        <v>2.220442347757006e-14</v>
+        <v>2.220442992210867e-14</v>
       </c>
       <c r="D43" t="n">
-        <v>2.220442347757006e-14</v>
+        <v>2.220442992210867e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>6.013157264904535e-05</v>
+        <v>2.094452843940573e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>6.21575602477837e-10</v>
+        <v>1.54023250501059e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>2.220442347757006e-14</v>
+        <v>2.220442992210867e-14</v>
       </c>
       <c r="H43" t="n">
-        <v>2.220442347757006e-14</v>
+        <v>2.220442992210867e-14</v>
       </c>
       <c r="I43" t="n">
-        <v>6.995654722427955e-08</v>
+        <v>3.124044785033877e-12</v>
       </c>
       <c r="J43" t="n">
-        <v>2.220442347757006e-14</v>
+        <v>2.220442992210867e-14</v>
       </c>
       <c r="K43" t="n">
-        <v>2.220442347757006e-14</v>
+        <v>2.220442992210867e-14</v>
       </c>
       <c r="L43" t="n">
-        <v>1.229849768574625e-07</v>
+        <v>8.684460576830323e-10</v>
       </c>
       <c r="M43" t="n">
-        <v>2.220442347757006e-14</v>
+        <v>2.220442992210867e-14</v>
       </c>
       <c r="N43" t="n">
-        <v>2.220442347757006e-14</v>
+        <v>2.220442992210867e-14</v>
       </c>
       <c r="O43" t="n">
-        <v>2.220442347757006e-14</v>
+        <v>2.220442992210867e-14</v>
       </c>
       <c r="P43" t="n">
-        <v>2.220442347757006e-14</v>
+        <v>2.220442992210867e-14</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.9999396748640295</v>
+        <v>0.9999790545996143</v>
       </c>
       <c r="R43" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -3264,193 +3049,178 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>RUG385.fasta</t>
+          <t>RUG511.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9999775607026629</v>
+        <v>0.003855891029523072</v>
       </c>
       <c r="C44" t="n">
-        <v>2.220442788435775e-14</v>
+        <v>2.220062155290723e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>2.220442788435775e-14</v>
+        <v>2.220062155290723e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>2.24391195989625e-05</v>
+        <v>2.529718490791445e-09</v>
       </c>
       <c r="F44" t="n">
-        <v>2.444473094303467e-13</v>
+        <v>3.058477656228393e-12</v>
       </c>
       <c r="G44" t="n">
-        <v>2.220442788435775e-14</v>
+        <v>2.220062155290723e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>2.220442788435775e-14</v>
+        <v>2.220062155290723e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>1.049194350286734e-11</v>
+        <v>0.9960505966529601</v>
       </c>
       <c r="J44" t="n">
-        <v>2.220442788435775e-14</v>
+        <v>2.220062155290723e-14</v>
       </c>
       <c r="K44" t="n">
-        <v>2.220442788435775e-14</v>
+        <v>2.220062155290723e-14</v>
       </c>
       <c r="L44" t="n">
-        <v>1.667795856415691e-10</v>
+        <v>9.350978451760123e-05</v>
       </c>
       <c r="M44" t="n">
-        <v>2.220442788435775e-14</v>
+        <v>2.220062155290723e-14</v>
       </c>
       <c r="N44" t="n">
-        <v>2.220442788435775e-14</v>
+        <v>2.220062155290723e-14</v>
       </c>
       <c r="O44" t="n">
-        <v>2.220442788435775e-14</v>
+        <v>2.220062155290723e-14</v>
       </c>
       <c r="P44" t="n">
-        <v>2.220442788435775e-14</v>
+        <v>2.220062155290723e-14</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.9999775607026629</v>
+        <v>0.9960505966529601</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>RUG393.fasta</t>
+          <t>RUG542.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0001335900145029494</v>
+        <v>0.0004943238766367463</v>
       </c>
       <c r="C45" t="n">
-        <v>2.220426281758261e-14</v>
+        <v>2.220373001201444e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>2.220426281758261e-14</v>
+        <v>2.220373001201444e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>1.114782490373937e-13</v>
+        <v>7.398384624796722e-14</v>
       </c>
       <c r="F45" t="n">
-        <v>2.220426281758261e-14</v>
+        <v>2.220373001201444e-14</v>
       </c>
       <c r="G45" t="n">
-        <v>2.220426281758261e-14</v>
+        <v>2.220373001201444e-14</v>
       </c>
       <c r="H45" t="n">
-        <v>2.220426281758261e-14</v>
+        <v>2.220373001201444e-14</v>
       </c>
       <c r="I45" t="n">
-        <v>2.220426281758261e-14</v>
+        <v>0.9995054780007278</v>
       </c>
       <c r="J45" t="n">
-        <v>2.220426281758261e-14</v>
+        <v>2.220373001201444e-14</v>
       </c>
       <c r="K45" t="n">
-        <v>2.220426281758261e-14</v>
+        <v>2.220373001201444e-14</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9998664099851191</v>
+        <v>1.981223173153132e-07</v>
       </c>
       <c r="M45" t="n">
-        <v>2.220426281758261e-14</v>
+        <v>2.220373001201444e-14</v>
       </c>
       <c r="N45" t="n">
-        <v>2.220426281758261e-14</v>
+        <v>2.220373001201444e-14</v>
       </c>
       <c r="O45" t="n">
-        <v>2.220426281758261e-14</v>
+        <v>2.220373001201444e-14</v>
       </c>
       <c r="P45" t="n">
-        <v>2.220426281758261e-14</v>
+        <v>2.220373001201444e-14</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.9998664099851191</v>
+        <v>0.9995054780007278</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>RUG426.fasta</t>
+          <t>RUG543.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9999833735930936</v>
+        <v>0.9999755101942237</v>
       </c>
       <c r="C46" t="n">
-        <v>2.220443671647886e-14</v>
+        <v>2.220442457912532e-14</v>
       </c>
       <c r="D46" t="n">
-        <v>2.220443671647886e-14</v>
+        <v>2.220442457912532e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>1.662621834720794e-05</v>
+        <v>2.448812421740811e-05</v>
       </c>
       <c r="F46" t="n">
-        <v>2.007893051085046e-13</v>
+        <v>1.751069153519623e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>2.220443671647886e-14</v>
+        <v>2.220442457912532e-14</v>
       </c>
       <c r="H46" t="n">
-        <v>2.220443671647886e-14</v>
+        <v>2.220442457912532e-14</v>
       </c>
       <c r="I46" t="n">
-        <v>3.848162503300274e-11</v>
+        <v>1.107636812905671e-12</v>
       </c>
       <c r="J46" t="n">
-        <v>2.220443671647886e-14</v>
+        <v>2.220442457912532e-14</v>
       </c>
       <c r="K46" t="n">
-        <v>2.220443671647886e-14</v>
+        <v>2.220442457912532e-14</v>
       </c>
       <c r="L46" t="n">
-        <v>1.496548914514339e-10</v>
+        <v>1.680053968834088e-09</v>
       </c>
       <c r="M46" t="n">
-        <v>2.220443671647886e-14</v>
+        <v>2.220442457912532e-14</v>
       </c>
       <c r="N46" t="n">
-        <v>2.220443671647886e-14</v>
+        <v>2.220442457912532e-14</v>
       </c>
       <c r="O46" t="n">
-        <v>2.220443671647886e-14</v>
+        <v>2.220442457912532e-14</v>
       </c>
       <c r="P46" t="n">
-        <v>2.220443671647886e-14</v>
+        <v>2.220442457912532e-14</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.9999833735930936</v>
+        <v>0.9999755101942237</v>
       </c>
       <c r="R46" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -3459,63 +3229,58 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>RUG449.fasta</t>
+          <t>RUG573.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9999700473412112</v>
+        <v>0.9998602394936382</v>
       </c>
       <c r="C47" t="n">
-        <v>2.220443347988535e-14</v>
+        <v>2.223323191154171e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>2.220443347988535e-14</v>
+        <v>2.223323191154171e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>2.98794034923506e-05</v>
+        <v>3.343221780567887e-05</v>
       </c>
       <c r="F47" t="n">
-        <v>2.291454957385812e-10</v>
+        <v>2.223323191154173e-14</v>
       </c>
       <c r="G47" t="n">
-        <v>2.220443347988535e-14</v>
+        <v>2.223323191154171e-14</v>
       </c>
       <c r="H47" t="n">
-        <v>2.220443347988535e-14</v>
+        <v>2.223323191154171e-14</v>
       </c>
       <c r="I47" t="n">
-        <v>1.830308575634603e-08</v>
+        <v>2.223323191154171e-14</v>
       </c>
       <c r="J47" t="n">
-        <v>2.220443347988535e-14</v>
+        <v>2.223323191154171e-14</v>
       </c>
       <c r="K47" t="n">
-        <v>2.220443347988535e-14</v>
+        <v>2.223323191154171e-14</v>
       </c>
       <c r="L47" t="n">
-        <v>5.472284320797769e-08</v>
+        <v>0.000106328288289561</v>
       </c>
       <c r="M47" t="n">
-        <v>2.220443347988535e-14</v>
+        <v>2.223323191154171e-14</v>
       </c>
       <c r="N47" t="n">
-        <v>2.220443347988535e-14</v>
+        <v>2.223323191154171e-14</v>
       </c>
       <c r="O47" t="n">
-        <v>2.220443347988535e-14</v>
+        <v>2.223323191154171e-14</v>
       </c>
       <c r="P47" t="n">
-        <v>2.220443347988535e-14</v>
+        <v>2.223323191154171e-14</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.9999700473412112</v>
+        <v>0.9998602394936382</v>
       </c>
       <c r="R47" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -3524,583 +3289,538 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>RUG460.fasta</t>
+          <t>RUG580.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7.320189189748033e-05</v>
+        <v>0.002952062430920303</v>
       </c>
       <c r="C48" t="n">
-        <v>2.220350396574418e-14</v>
+        <v>2.220061020094156e-14</v>
       </c>
       <c r="D48" t="n">
-        <v>2.220350396574418e-14</v>
+        <v>2.220061020094156e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>2.210855231912008e-10</v>
+        <v>6.683128760724842e-09</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0006449692044459205</v>
+        <v>1.172895810450518e-12</v>
       </c>
       <c r="G48" t="n">
-        <v>2.220350396574418e-14</v>
+        <v>2.220061020094156e-14</v>
       </c>
       <c r="H48" t="n">
-        <v>2.220350396574418e-14</v>
+        <v>2.220061020094156e-14</v>
       </c>
       <c r="I48" t="n">
-        <v>7.10482170199946e-06</v>
+        <v>0.9968720193869054</v>
       </c>
       <c r="J48" t="n">
-        <v>2.220350396574418e-14</v>
+        <v>2.220061020094156e-14</v>
       </c>
       <c r="K48" t="n">
-        <v>2.220350396574418e-14</v>
+        <v>2.220061020094156e-14</v>
       </c>
       <c r="L48" t="n">
-        <v>0.999274723860647</v>
+        <v>0.0001759114976505334</v>
       </c>
       <c r="M48" t="n">
-        <v>2.220350396574418e-14</v>
+        <v>2.220061020094156e-14</v>
       </c>
       <c r="N48" t="n">
-        <v>2.220350396574418e-14</v>
+        <v>2.220061020094156e-14</v>
       </c>
       <c r="O48" t="n">
-        <v>2.220350396574418e-14</v>
+        <v>2.220061020094156e-14</v>
       </c>
       <c r="P48" t="n">
-        <v>2.220350396574418e-14</v>
+        <v>2.220061020094156e-14</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.999274723860647</v>
+        <v>0.9968720193869054</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>RUG467.fasta</t>
+          <t>RUG592.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.506056717032897e-05</v>
+        <v>0.9998017067553349</v>
       </c>
       <c r="C49" t="n">
-        <v>2.2200615580384e-14</v>
+        <v>2.220418232487756e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>2.2200615580384e-14</v>
+        <v>2.220418232487756e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>2.817256075077746e-11</v>
+        <v>1.048237622396752e-07</v>
       </c>
       <c r="F49" t="n">
-        <v>5.079072146472606e-10</v>
+        <v>0.0001980693948237605</v>
       </c>
       <c r="G49" t="n">
-        <v>2.2200615580384e-14</v>
+        <v>2.220418232487756e-14</v>
       </c>
       <c r="H49" t="n">
-        <v>2.2200615580384e-14</v>
+        <v>2.220418232487756e-14</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9859621327948543</v>
+        <v>3.720288869148147e-10</v>
       </c>
       <c r="J49" t="n">
-        <v>2.2200615580384e-14</v>
+        <v>2.220418232487756e-14</v>
       </c>
       <c r="K49" t="n">
-        <v>2.2200615580384e-14</v>
+        <v>2.220418232487756e-14</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01401280610167354</v>
+        <v>1.186538282848511e-07</v>
       </c>
       <c r="M49" t="n">
-        <v>2.2200615580384e-14</v>
+        <v>2.220418232487756e-14</v>
       </c>
       <c r="N49" t="n">
-        <v>2.2200615580384e-14</v>
+        <v>2.220418232487756e-14</v>
       </c>
       <c r="O49" t="n">
-        <v>2.2200615580384e-14</v>
+        <v>2.220418232487756e-14</v>
       </c>
       <c r="P49" t="n">
-        <v>2.2200615580384e-14</v>
+        <v>2.220418232487756e-14</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.9859621327948543</v>
+        <v>0.9998017067553349</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>RUG468.fasta</t>
+          <t>RUG601.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9999815686192035</v>
+        <v>3.512073356230788e-07</v>
       </c>
       <c r="C50" t="n">
-        <v>2.22044339996059e-14</v>
+        <v>2.22043930364764e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>2.22044339996059e-14</v>
+        <v>2.22043930364764e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>1.842987473707073e-05</v>
+        <v>2.22043930364764e-14</v>
       </c>
       <c r="F50" t="n">
-        <v>2.947594760874731e-13</v>
+        <v>2.22043930364764e-14</v>
       </c>
       <c r="G50" t="n">
-        <v>2.22044339996059e-14</v>
+        <v>2.22043930364764e-14</v>
       </c>
       <c r="H50" t="n">
-        <v>2.22044339996059e-14</v>
+        <v>2.22043930364764e-14</v>
       </c>
       <c r="I50" t="n">
-        <v>7.426644816084195e-11</v>
+        <v>0.9999544245620182</v>
       </c>
       <c r="J50" t="n">
-        <v>2.22044339996059e-14</v>
+        <v>2.22043930364764e-14</v>
       </c>
       <c r="K50" t="n">
-        <v>2.22044339996059e-14</v>
+        <v>2.22043930364764e-14</v>
       </c>
       <c r="L50" t="n">
-        <v>1.431276179489075e-09</v>
+        <v>4.522423037954341e-05</v>
       </c>
       <c r="M50" t="n">
-        <v>2.22044339996059e-14</v>
+        <v>2.22043930364764e-14</v>
       </c>
       <c r="N50" t="n">
-        <v>2.22044339996059e-14</v>
+        <v>2.22043930364764e-14</v>
       </c>
       <c r="O50" t="n">
-        <v>2.22044339996059e-14</v>
+        <v>2.22043930364764e-14</v>
       </c>
       <c r="P50" t="n">
-        <v>2.22044339996059e-14</v>
+        <v>2.22043930364764e-14</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.9999815686192035</v>
+        <v>0.9999544245620182</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>RUG475.fasta</t>
+          <t>RUG604.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9985879799756561</v>
+        <v>4.915051529202299e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>2.220835437285619e-14</v>
+        <v>2.220123526519126e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>2.220835437285619e-14</v>
+        <v>2.220123526519126e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>4.562066293189407e-08</v>
+        <v>5.862184590627106e-11</v>
       </c>
       <c r="F51" t="n">
-        <v>4.590648795568512e-11</v>
+        <v>0.002149812981289499</v>
       </c>
       <c r="G51" t="n">
-        <v>2.220835437285619e-14</v>
+        <v>2.220123526519126e-14</v>
       </c>
       <c r="H51" t="n">
-        <v>2.220835437285619e-14</v>
+        <v>2.220123526519126e-14</v>
       </c>
       <c r="I51" t="n">
-        <v>9.204535959759313e-14</v>
+        <v>7.430861146631379e-07</v>
       </c>
       <c r="J51" t="n">
-        <v>2.220835437285619e-14</v>
+        <v>2.220123526519126e-14</v>
       </c>
       <c r="K51" t="n">
-        <v>2.220835437285619e-14</v>
+        <v>2.220123526519126e-14</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0014119743574605</v>
+        <v>0.9978002933584599</v>
       </c>
       <c r="M51" t="n">
-        <v>2.220835437285619e-14</v>
+        <v>2.220123526519126e-14</v>
       </c>
       <c r="N51" t="n">
-        <v>2.220835437285619e-14</v>
+        <v>2.220123526519126e-14</v>
       </c>
       <c r="O51" t="n">
-        <v>2.220835437285619e-14</v>
+        <v>2.220123526519126e-14</v>
       </c>
       <c r="P51" t="n">
-        <v>2.220835437285619e-14</v>
+        <v>2.220123526519126e-14</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.9985879799756561</v>
+        <v>0.9978002933584599</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Ruminococcaceae</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>RUG479.fasta</t>
+          <t>RUG608.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.7264870430539351</v>
+        <v>0.0005574157306009699</v>
       </c>
       <c r="C52" t="n">
-        <v>1.819645140377501e-13</v>
+        <v>2.220363668520699e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>1.819645140377501e-13</v>
+        <v>2.220363668520699e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>2.06067606279356e-08</v>
+        <v>7.084636882533618e-11</v>
       </c>
       <c r="F52" t="n">
-        <v>1.246988377146798e-06</v>
+        <v>8.615284688452919e-09</v>
       </c>
       <c r="G52" t="n">
-        <v>1.819645140377498e-13</v>
+        <v>2.220363668520699e-14</v>
       </c>
       <c r="H52" t="n">
-        <v>1.819645140377498e-13</v>
+        <v>2.220363668520699e-14</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2735001975810173</v>
+        <v>0.999442564418313</v>
       </c>
       <c r="J52" t="n">
-        <v>1.8196451403775e-13</v>
+        <v>2.220363668520699e-14</v>
       </c>
       <c r="K52" t="n">
-        <v>1.819645140377501e-13</v>
+        <v>2.220363668520699e-14</v>
       </c>
       <c r="L52" t="n">
-        <v>1.149176809003788e-05</v>
+        <v>1.11647327001253e-08</v>
       </c>
       <c r="M52" t="n">
-        <v>1.819645140377501e-13</v>
+        <v>2.220363668520699e-14</v>
       </c>
       <c r="N52" t="n">
-        <v>1.819645140377502e-13</v>
+        <v>2.220363668520699e-14</v>
       </c>
       <c r="O52" t="n">
-        <v>1.819645140377502e-13</v>
+        <v>2.220363668520699e-14</v>
       </c>
       <c r="P52" t="n">
-        <v>1.819645140377502e-13</v>
+        <v>2.220363668520699e-14</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.7264870430539351</v>
+        <v>0.999442564418313</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae(reject)</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>RUG493.fasta</t>
+          <t>RUG623.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9799069333657955</v>
+        <v>0.004427326274016683</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001435218309770465</v>
+        <v>2.220060341736083e-14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001435218309770466</v>
+        <v>2.220060341736083e-14</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001435228606284027</v>
+        <v>8.372574144156941e-10</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001435218310606241</v>
+        <v>2.167942065612677e-11</v>
       </c>
       <c r="G53" t="n">
-        <v>0.001435218309770466</v>
+        <v>2.220060341736083e-14</v>
       </c>
       <c r="H53" t="n">
-        <v>0.001435218309770473</v>
+        <v>2.220060341736083e-14</v>
       </c>
       <c r="I53" t="n">
-        <v>0.001435218309770473</v>
+        <v>0.9953958494357685</v>
       </c>
       <c r="J53" t="n">
-        <v>0.001435218309770473</v>
+        <v>2.220060341736083e-14</v>
       </c>
       <c r="K53" t="n">
-        <v>0.001435218309770463</v>
+        <v>2.220060341736083e-14</v>
       </c>
       <c r="L53" t="n">
-        <v>0.001435218309838694</v>
+        <v>0.00017682343105581</v>
       </c>
       <c r="M53" t="n">
-        <v>0.001435218309770466</v>
+        <v>2.220060341736083e-14</v>
       </c>
       <c r="N53" t="n">
-        <v>0.00143521830977047</v>
+        <v>2.220060341736083e-14</v>
       </c>
       <c r="O53" t="n">
-        <v>0.001435218309770467</v>
+        <v>2.220060341736083e-14</v>
       </c>
       <c r="P53" t="n">
-        <v>0.001435218309770461</v>
+        <v>2.220060341736083e-14</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.9799069333657955</v>
+        <v>0.9953958494357685</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>RUG498.fasta</t>
+          <t>RUG637.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0004736505292371763</v>
+        <v>0.9999811455613326</v>
       </c>
       <c r="C54" t="n">
-        <v>2.220362457463381e-14</v>
+        <v>2.220443317094426e-14</v>
       </c>
       <c r="D54" t="n">
-        <v>2.220362457463381e-14</v>
+        <v>2.220443317094426e-14</v>
       </c>
       <c r="E54" t="n">
-        <v>2.220362457463381e-14</v>
+        <v>1.885382049580443e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>2.242053258675863e-11</v>
+        <v>1.709082965335021e-13</v>
       </c>
       <c r="G54" t="n">
-        <v>2.220362457463381e-14</v>
+        <v>2.220443317094426e-14</v>
       </c>
       <c r="H54" t="n">
-        <v>2.220362457463381e-14</v>
+        <v>2.220443317094426e-14</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9994343362819796</v>
+        <v>1.439116660890467e-11</v>
       </c>
       <c r="J54" t="n">
-        <v>2.220362457463381e-14</v>
+        <v>2.220443317094426e-14</v>
       </c>
       <c r="K54" t="n">
-        <v>2.220362457463381e-14</v>
+        <v>2.220443317094426e-14</v>
       </c>
       <c r="L54" t="n">
-        <v>9.201316611848736e-05</v>
+        <v>6.033875913636641e-10</v>
       </c>
       <c r="M54" t="n">
-        <v>2.220362457463381e-14</v>
+        <v>2.220443317094426e-14</v>
       </c>
       <c r="N54" t="n">
-        <v>2.220362457463381e-14</v>
+        <v>2.220443317094426e-14</v>
       </c>
       <c r="O54" t="n">
-        <v>2.220362457463381e-14</v>
+        <v>2.220443317094426e-14</v>
       </c>
       <c r="P54" t="n">
-        <v>2.220362457463381e-14</v>
+        <v>2.220443317094426e-14</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.9994343362819796</v>
+        <v>0.9999811455613326</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>RUG502.fasta</t>
+          <t>RUG665.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.572440810058132e-05</v>
+        <v>0.9999812777346383</v>
       </c>
       <c r="C55" t="n">
-        <v>2.220439508884795e-14</v>
+        <v>2.220443289844472e-14</v>
       </c>
       <c r="D55" t="n">
-        <v>2.220439508884795e-14</v>
+        <v>2.220443289844472e-14</v>
       </c>
       <c r="E55" t="n">
-        <v>2.220439508884795e-14</v>
+        <v>1.871780579173576e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>2.220439508884795e-14</v>
+        <v>2.845990744438272e-13</v>
       </c>
       <c r="G55" t="n">
-        <v>2.220439508884795e-14</v>
+        <v>2.220443289844472e-14</v>
       </c>
       <c r="H55" t="n">
-        <v>2.220439508884795e-14</v>
+        <v>2.220443289844472e-14</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9999542754448623</v>
+        <v>9.379611537694754e-14</v>
       </c>
       <c r="J55" t="n">
-        <v>2.220439508884795e-14</v>
+        <v>2.220443289844472e-14</v>
       </c>
       <c r="K55" t="n">
-        <v>2.220439508884795e-14</v>
+        <v>2.220443289844472e-14</v>
       </c>
       <c r="L55" t="n">
-        <v>1.467705793323857e-10</v>
+        <v>4.458969600840281e-09</v>
       </c>
       <c r="M55" t="n">
-        <v>2.220439508884795e-14</v>
+        <v>2.220443289844472e-14</v>
       </c>
       <c r="N55" t="n">
-        <v>2.220439508884795e-14</v>
+        <v>2.220443289844472e-14</v>
       </c>
       <c r="O55" t="n">
-        <v>2.220439508884795e-14</v>
+        <v>2.220443289844472e-14</v>
       </c>
       <c r="P55" t="n">
-        <v>2.220439508884795e-14</v>
+        <v>2.220443289844472e-14</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.9999542754448623</v>
+        <v>0.9999812777346383</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>RUG509.fasta</t>
+          <t>RUG669.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9999609521026975</v>
+        <v>0.999994920941636</v>
       </c>
       <c r="C56" t="n">
-        <v>2.220440416174231e-14</v>
+        <v>2.220491431076978e-14</v>
       </c>
       <c r="D56" t="n">
-        <v>2.220440416174231e-14</v>
+        <v>2.220491431076978e-14</v>
       </c>
       <c r="E56" t="n">
-        <v>3.904699438890128e-05</v>
+        <v>3.860468407865462e-08</v>
       </c>
       <c r="F56" t="n">
-        <v>1.170609462217159e-13</v>
+        <v>5.988916770866812e-13</v>
       </c>
       <c r="G56" t="n">
-        <v>2.220440416174231e-14</v>
+        <v>2.220491431076978e-14</v>
       </c>
       <c r="H56" t="n">
-        <v>2.220440416174231e-14</v>
+        <v>2.220491431076978e-14</v>
       </c>
       <c r="I56" t="n">
-        <v>5.988264593334792e-12</v>
+        <v>2.843030330306539e-08</v>
       </c>
       <c r="J56" t="n">
-        <v>2.220440416174231e-14</v>
+        <v>2.220491431076978e-14</v>
       </c>
       <c r="K56" t="n">
-        <v>2.220440416174231e-14</v>
+        <v>2.220491431076978e-14</v>
       </c>
       <c r="L56" t="n">
-        <v>8.965861612793565e-10</v>
+        <v>5.012022555697294e-06</v>
       </c>
       <c r="M56" t="n">
-        <v>2.220440416174231e-14</v>
+        <v>2.220491431076978e-14</v>
       </c>
       <c r="N56" t="n">
-        <v>2.220440416174231e-14</v>
+        <v>2.220491431076978e-14</v>
       </c>
       <c r="O56" t="n">
-        <v>2.220440416174231e-14</v>
+        <v>2.220491431076978e-14</v>
       </c>
       <c r="P56" t="n">
-        <v>2.220440416174231e-14</v>
+        <v>2.220491431076978e-14</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.9999609521026975</v>
+        <v>0.999994920941636</v>
       </c>
       <c r="R56" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -4109,193 +3829,178 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>RUG511.fasta</t>
+          <t>RUG670.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01302774679393303</v>
+        <v>0.999945629087749</v>
       </c>
       <c r="C57" t="n">
-        <v>2.227119629361799e-14</v>
+        <v>2.221832522339753e-14</v>
       </c>
       <c r="D57" t="n">
-        <v>2.227119629361799e-14</v>
+        <v>2.221832522339753e-14</v>
       </c>
       <c r="E57" t="n">
-        <v>4.705998387870465e-11</v>
+        <v>9.576657857259473e-13</v>
       </c>
       <c r="F57" t="n">
-        <v>2.16420775262816e-11</v>
+        <v>2.119767251243663e-08</v>
       </c>
       <c r="G57" t="n">
-        <v>2.227119629361799e-14</v>
+        <v>2.221832522339753e-14</v>
       </c>
       <c r="H57" t="n">
-        <v>2.227119629361799e-14</v>
+        <v>2.221832522339753e-14</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9860940727852999</v>
+        <v>3.623205201411739e-05</v>
       </c>
       <c r="J57" t="n">
-        <v>2.227119629361799e-14</v>
+        <v>2.221832522339753e-14</v>
       </c>
       <c r="K57" t="n">
-        <v>2.227119629361799e-14</v>
+        <v>2.221832522339753e-14</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0008781803518420171</v>
+        <v>1.811766138471194e-05</v>
       </c>
       <c r="M57" t="n">
-        <v>2.227119629361799e-14</v>
+        <v>2.221832522339753e-14</v>
       </c>
       <c r="N57" t="n">
-        <v>2.227119629361799e-14</v>
+        <v>2.221832522339753e-14</v>
       </c>
       <c r="O57" t="n">
-        <v>2.227119629361799e-14</v>
+        <v>2.221832522339753e-14</v>
       </c>
       <c r="P57" t="n">
-        <v>2.227119629361799e-14</v>
+        <v>2.221832522339753e-14</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.9860940727852999</v>
+        <v>0.999945629087749</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>RUG518.fasta</t>
+          <t>RUG672.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.158821548518645e-07</v>
+        <v>0.99687359480113</v>
       </c>
       <c r="C58" t="n">
-        <v>2.22044352584161e-14</v>
+        <v>2.220057902086766e-14</v>
       </c>
       <c r="D58" t="n">
-        <v>2.22044352584161e-14</v>
+        <v>2.220057902086766e-14</v>
       </c>
       <c r="E58" t="n">
-        <v>4.004069654349611e-11</v>
+        <v>1.312892782381498e-13</v>
       </c>
       <c r="F58" t="n">
-        <v>3.708766062324658e-14</v>
+        <v>4.039553580247257e-10</v>
       </c>
       <c r="G58" t="n">
-        <v>2.22044352584161e-14</v>
+        <v>2.220057902086766e-14</v>
       </c>
       <c r="H58" t="n">
-        <v>2.22044352584161e-14</v>
+        <v>2.220057902086766e-14</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9999829525110173</v>
+        <v>2.220057902086766e-14</v>
       </c>
       <c r="J58" t="n">
-        <v>2.22044352584161e-14</v>
+        <v>2.220057902086766e-14</v>
       </c>
       <c r="K58" t="n">
-        <v>2.22044352584161e-14</v>
+        <v>2.220057902086766e-14</v>
       </c>
       <c r="L58" t="n">
-        <v>1.693156652789322e-05</v>
+        <v>3.811486957533061e-08</v>
       </c>
       <c r="M58" t="n">
-        <v>2.22044352584161e-14</v>
+        <v>2.220057902086766e-14</v>
       </c>
       <c r="N58" t="n">
-        <v>2.22044352584161e-14</v>
+        <v>0.003126366679691514</v>
       </c>
       <c r="O58" t="n">
-        <v>2.22044352584161e-14</v>
+        <v>2.220057902086766e-14</v>
       </c>
       <c r="P58" t="n">
-        <v>2.22044352584161e-14</v>
+        <v>2.220057902086766e-14</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.9999829525110173</v>
+        <v>0.99687359480113</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>RUG542.fasta</t>
+          <t>RUG674.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.001868089147884812</v>
+        <v>3.899983175913157e-06</v>
       </c>
       <c r="C59" t="n">
-        <v>2.220171041008974e-14</v>
+        <v>2.220445096359556e-14</v>
       </c>
       <c r="D59" t="n">
-        <v>2.220171041008974e-14</v>
+        <v>2.220445096359556e-14</v>
       </c>
       <c r="E59" t="n">
-        <v>3.309377468525274e-13</v>
+        <v>4.067023265478435e-09</v>
       </c>
       <c r="F59" t="n">
-        <v>1.080615388755031e-12</v>
+        <v>2.220445096359556e-14</v>
       </c>
       <c r="G59" t="n">
-        <v>2.220171041008974e-14</v>
+        <v>2.220445096359556e-14</v>
       </c>
       <c r="H59" t="n">
-        <v>2.220171041008974e-14</v>
+        <v>2.220445096359556e-14</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9981319100403252</v>
+        <v>0.9999935627202807</v>
       </c>
       <c r="J59" t="n">
-        <v>2.220171041008974e-14</v>
+        <v>2.220445096359556e-14</v>
       </c>
       <c r="K59" t="n">
-        <v>2.220171041008974e-14</v>
+        <v>2.220445096359556e-14</v>
       </c>
       <c r="L59" t="n">
-        <v>8.10156505479409e-10</v>
+        <v>2.533229275985629e-06</v>
       </c>
       <c r="M59" t="n">
-        <v>2.220171041008974e-14</v>
+        <v>2.220445096359556e-14</v>
       </c>
       <c r="N59" t="n">
-        <v>2.220171041008974e-14</v>
+        <v>2.220445096359556e-14</v>
       </c>
       <c r="O59" t="n">
-        <v>2.220171041008974e-14</v>
+        <v>2.220445096359556e-14</v>
       </c>
       <c r="P59" t="n">
-        <v>2.220171041008974e-14</v>
+        <v>2.220445096359556e-14</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.9981319100403252</v>
+        <v>0.9999935627202807</v>
       </c>
       <c r="R59" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
         <is>
           <t>f__Oscillospiraceae</t>
         </is>
@@ -4304,128 +4009,118 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>RUG543.fasta</t>
+          <t>RUG680.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9999666133381094</v>
+        <v>0.003855818561978563</v>
       </c>
       <c r="C60" t="n">
-        <v>2.22044117169345e-14</v>
+        <v>2.220058403503564e-14</v>
       </c>
       <c r="D60" t="n">
-        <v>2.22044117169345e-14</v>
+        <v>2.220058403503564e-14</v>
       </c>
       <c r="E60" t="n">
-        <v>3.338658136063893e-05</v>
+        <v>0.9961441729897907</v>
       </c>
       <c r="F60" t="n">
-        <v>6.772367289910973e-13</v>
+        <v>4.542571572733795e-09</v>
       </c>
       <c r="G60" t="n">
-        <v>2.22044117169345e-14</v>
+        <v>2.220058403503564e-14</v>
       </c>
       <c r="H60" t="n">
-        <v>2.22044117169345e-14</v>
+        <v>2.220058403503564e-14</v>
       </c>
       <c r="I60" t="n">
-        <v>5.275835435475038e-12</v>
+        <v>3.849757377488635e-09</v>
       </c>
       <c r="J60" t="n">
-        <v>2.22044117169345e-14</v>
+        <v>2.220058403503564e-14</v>
       </c>
       <c r="K60" t="n">
-        <v>2.22044117169345e-14</v>
+        <v>2.220058403503564e-14</v>
       </c>
       <c r="L60" t="n">
-        <v>7.435493744676134e-11</v>
+        <v>5.567970569317703e-11</v>
       </c>
       <c r="M60" t="n">
-        <v>2.22044117169345e-14</v>
+        <v>2.220058403503564e-14</v>
       </c>
       <c r="N60" t="n">
-        <v>2.22044117169345e-14</v>
+        <v>2.220058403503564e-14</v>
       </c>
       <c r="O60" t="n">
-        <v>2.22044117169345e-14</v>
+        <v>2.220058403503564e-14</v>
       </c>
       <c r="P60" t="n">
-        <v>2.22044117169345e-14</v>
+        <v>2.220058403503564e-14</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.9999666133381094</v>
+        <v>0.9961441729897907</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__CAG-272</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>RUG573.fasta</t>
+          <t>RUG700.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9999236640659539</v>
+        <v>0.9976437462344349</v>
       </c>
       <c r="C61" t="n">
-        <v>2.222524873333243e-14</v>
+        <v>2.22010359327498e-14</v>
       </c>
       <c r="D61" t="n">
-        <v>2.222524873333243e-14</v>
+        <v>2.22010359327498e-14</v>
       </c>
       <c r="E61" t="n">
-        <v>2.024102313639349e-05</v>
+        <v>0.001784286056960216</v>
       </c>
       <c r="F61" t="n">
-        <v>4.514411999371763e-14</v>
+        <v>0.0005718944252685902</v>
       </c>
       <c r="G61" t="n">
-        <v>2.222524873333243e-14</v>
+        <v>2.22010359327498e-14</v>
       </c>
       <c r="H61" t="n">
-        <v>2.222524873333243e-14</v>
+        <v>2.22010359327498e-14</v>
       </c>
       <c r="I61" t="n">
-        <v>2.222524873333243e-14</v>
+        <v>7.32793895656952e-08</v>
       </c>
       <c r="J61" t="n">
-        <v>2.222524873333243e-14</v>
+        <v>2.22010359327498e-14</v>
       </c>
       <c r="K61" t="n">
-        <v>2.222524873333243e-14</v>
+        <v>2.22010359327498e-14</v>
       </c>
       <c r="L61" t="n">
-        <v>5.609491062014355e-05</v>
+        <v>3.724950819492759e-12</v>
       </c>
       <c r="M61" t="n">
-        <v>2.222524873333243e-14</v>
+        <v>2.22010359327498e-14</v>
       </c>
       <c r="N61" t="n">
-        <v>2.222524873333243e-14</v>
+        <v>2.22010359327498e-14</v>
       </c>
       <c r="O61" t="n">
-        <v>2.222524873333243e-14</v>
+        <v>2.22010359327498e-14</v>
       </c>
       <c r="P61" t="n">
-        <v>2.222524873333243e-14</v>
+        <v>2.22010359327498e-14</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.9999236640659539</v>
+        <v>0.9976437462344349</v>
       </c>
       <c r="R61" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -4434,193 +4129,178 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>RUG580.fasta</t>
+          <t>RUG757.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01940123999333059</v>
+        <v>0.9999921496188338</v>
       </c>
       <c r="C62" t="n">
-        <v>2.220064281900603e-14</v>
+        <v>2.220445665953159e-14</v>
       </c>
       <c r="D62" t="n">
-        <v>2.220064281900603e-14</v>
+        <v>2.220445665953159e-14</v>
       </c>
       <c r="E62" t="n">
-        <v>5.633864444866404e-10</v>
+        <v>2.099884191963599e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>1.195729547117705e-10</v>
+        <v>1.001514353092625e-06</v>
       </c>
       <c r="G62" t="n">
-        <v>2.220064281900603e-14</v>
+        <v>2.220445665953159e-14</v>
       </c>
       <c r="H62" t="n">
-        <v>2.220064281900603e-14</v>
+        <v>2.220445665953159e-14</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9805462999472662</v>
+        <v>1.657338609186273e-09</v>
       </c>
       <c r="J62" t="n">
-        <v>2.220064281900603e-14</v>
+        <v>2.220445665953159e-14</v>
       </c>
       <c r="K62" t="n">
-        <v>2.220064281900603e-14</v>
+        <v>2.220445665953159e-14</v>
       </c>
       <c r="L62" t="n">
-        <v>5.245937622185011e-05</v>
+        <v>4.747325060432669e-06</v>
       </c>
       <c r="M62" t="n">
-        <v>2.220064281900603e-14</v>
+        <v>2.220445665953159e-14</v>
       </c>
       <c r="N62" t="n">
-        <v>2.220064281900603e-14</v>
+        <v>2.220445665953159e-14</v>
       </c>
       <c r="O62" t="n">
-        <v>2.220064281900603e-14</v>
+        <v>2.220445665953159e-14</v>
       </c>
       <c r="P62" t="n">
-        <v>2.220064281900603e-14</v>
+        <v>2.220445665953159e-14</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.9805462999472662</v>
+        <v>0.9999921496188338</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>RUG581.fasta</t>
+          <t>RUG798.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9998516916002561</v>
+        <v>7.415705460870425e-10</v>
       </c>
       <c r="C63" t="n">
-        <v>2.220441694134679e-14</v>
+        <v>2.220447783302032e-14</v>
       </c>
       <c r="D63" t="n">
-        <v>2.220441694134679e-14</v>
+        <v>2.220447783302032e-14</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0001477716927448965</v>
+        <v>2.220447783302032e-14</v>
       </c>
       <c r="F63" t="n">
-        <v>1.216726324547399e-13</v>
+        <v>2.220447783302032e-14</v>
       </c>
       <c r="G63" t="n">
-        <v>2.220441694134679e-14</v>
+        <v>2.220447783302032e-14</v>
       </c>
       <c r="H63" t="n">
-        <v>2.220441694134679e-14</v>
+        <v>2.220447783302032e-14</v>
       </c>
       <c r="I63" t="n">
-        <v>5.293714791777326e-07</v>
+        <v>0.9999999477851159</v>
       </c>
       <c r="J63" t="n">
-        <v>2.220441694134679e-14</v>
+        <v>2.220447783302032e-14</v>
       </c>
       <c r="K63" t="n">
-        <v>2.220441694134679e-14</v>
+        <v>2.220447783302032e-14</v>
       </c>
       <c r="L63" t="n">
-        <v>7.335176235795769e-09</v>
+        <v>5.147304712521317e-08</v>
       </c>
       <c r="M63" t="n">
-        <v>2.220441694134679e-14</v>
+        <v>2.220447783302032e-14</v>
       </c>
       <c r="N63" t="n">
-        <v>2.220441694134679e-14</v>
+        <v>2.220447783302032e-14</v>
       </c>
       <c r="O63" t="n">
-        <v>2.220441694134679e-14</v>
+        <v>2.220447783302032e-14</v>
       </c>
       <c r="P63" t="n">
-        <v>2.220441694134679e-14</v>
+        <v>2.220447783302032e-14</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.9998516916002561</v>
+        <v>0.9999999477851159</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Oscillospiraceae</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>RUG592.fasta</t>
+          <t>RUG803.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9986215242352633</v>
+        <v>0.9999889239033289</v>
       </c>
       <c r="C64" t="n">
-        <v>2.220243277621939e-14</v>
+        <v>2.220444410461463e-14</v>
       </c>
       <c r="D64" t="n">
-        <v>2.220243277621939e-14</v>
+        <v>2.220444410461463e-14</v>
       </c>
       <c r="E64" t="n">
-        <v>8.42474174454674e-08</v>
+        <v>4.992557145568784e-12</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001378378363361723</v>
+        <v>2.220444410461463e-14</v>
       </c>
       <c r="G64" t="n">
-        <v>2.220243277621939e-14</v>
+        <v>2.220444410461463e-14</v>
       </c>
       <c r="H64" t="n">
-        <v>2.220243277621939e-14</v>
+        <v>2.220444410461463e-14</v>
       </c>
       <c r="I64" t="n">
-        <v>4.594178058432504e-09</v>
+        <v>2.220444410461463e-14</v>
       </c>
       <c r="J64" t="n">
-        <v>2.220243277621939e-14</v>
+        <v>2.220444410461463e-14</v>
       </c>
       <c r="K64" t="n">
-        <v>2.220243277621939e-14</v>
+        <v>2.220444410461463e-14</v>
       </c>
       <c r="L64" t="n">
-        <v>8.55955750386292e-09</v>
+        <v>1.107609141204114e-05</v>
       </c>
       <c r="M64" t="n">
-        <v>2.220243277621939e-14</v>
+        <v>2.220444410461463e-14</v>
       </c>
       <c r="N64" t="n">
-        <v>2.220243277621939e-14</v>
+        <v>2.220444410461463e-14</v>
       </c>
       <c r="O64" t="n">
-        <v>2.220243277621939e-14</v>
+        <v>2.220444410461463e-14</v>
       </c>
       <c r="P64" t="n">
-        <v>2.220243277621939e-14</v>
+        <v>2.220444410461463e-14</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.9986215242352633</v>
+        <v>0.9999889239033289</v>
       </c>
       <c r="R64" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
@@ -4629,1558 +4309,238 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>RUG601.fasta</t>
+          <t>RUG814.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.69412663132069e-07</v>
+        <v>0.9999993797072675</v>
       </c>
       <c r="C65" t="n">
-        <v>2.220249679409229e-14</v>
+        <v>2.220475533678507e-14</v>
       </c>
       <c r="D65" t="n">
-        <v>2.220249679409229e-14</v>
+        <v>2.220475533678507e-14</v>
       </c>
       <c r="E65" t="n">
-        <v>2.220249679409229e-14</v>
+        <v>3.010397405022044e-07</v>
       </c>
       <c r="F65" t="n">
-        <v>2.220249679409229e-14</v>
+        <v>1.032845328895595e-08</v>
       </c>
       <c r="G65" t="n">
-        <v>2.220249679409229e-14</v>
+        <v>2.220475533678507e-14</v>
       </c>
       <c r="H65" t="n">
-        <v>2.220249679409229e-14</v>
+        <v>2.220475533678507e-14</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9986682216540066</v>
+        <v>2.297725484277468e-07</v>
       </c>
       <c r="J65" t="n">
-        <v>2.220249679409229e-14</v>
+        <v>2.220475533678507e-14</v>
       </c>
       <c r="K65" t="n">
-        <v>2.220249679409229e-14</v>
+        <v>2.220475533678507e-14</v>
       </c>
       <c r="L65" t="n">
-        <v>0.001331508933063705</v>
+        <v>7.915176827783985e-08</v>
       </c>
       <c r="M65" t="n">
-        <v>2.220249679409229e-14</v>
+        <v>2.220475533678507e-14</v>
       </c>
       <c r="N65" t="n">
-        <v>2.220249679409229e-14</v>
+        <v>2.220475533678507e-14</v>
       </c>
       <c r="O65" t="n">
-        <v>2.220249679409229e-14</v>
+        <v>2.220475533678507e-14</v>
       </c>
       <c r="P65" t="n">
-        <v>2.220249679409229e-14</v>
+        <v>2.220475533678507e-14</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.9986682216540066</v>
+        <v>0.9999993797072675</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>RUG604.fasta</t>
+          <t>RUG825.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.149764432377858e-05</v>
+        <v>0.9998764594315078</v>
       </c>
       <c r="C66" t="n">
-        <v>2.220429560586628e-14</v>
+        <v>2.224157378810846e-14</v>
       </c>
       <c r="D66" t="n">
-        <v>2.220429560586628e-14</v>
+        <v>2.224157378810846e-14</v>
       </c>
       <c r="E66" t="n">
-        <v>8.488450623387459e-11</v>
+        <v>2.239621489772461e-12</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0003481862590487377</v>
+        <v>2.112284707515078e-08</v>
       </c>
       <c r="G66" t="n">
-        <v>2.220429560586628e-14</v>
+        <v>2.224157378810846e-14</v>
       </c>
       <c r="H66" t="n">
-        <v>2.220429560586628e-14</v>
+        <v>2.224157378810846e-14</v>
       </c>
       <c r="I66" t="n">
-        <v>5.470090159668073e-06</v>
+        <v>9.668822604368952e-05</v>
       </c>
       <c r="J66" t="n">
-        <v>2.220429560586628e-14</v>
+        <v>2.224157378810846e-14</v>
       </c>
       <c r="K66" t="n">
-        <v>2.220429560586628e-14</v>
+        <v>2.224157378810845e-14</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9996048459213613</v>
+        <v>2.683121713974728e-05</v>
       </c>
       <c r="M66" t="n">
-        <v>2.220429560586628e-14</v>
+        <v>2.224157378810845e-14</v>
       </c>
       <c r="N66" t="n">
-        <v>2.220429560586628e-14</v>
+        <v>2.224157378810845e-14</v>
       </c>
       <c r="O66" t="n">
-        <v>2.220429560586628e-14</v>
+        <v>2.224157378810845e-14</v>
       </c>
       <c r="P66" t="n">
-        <v>2.220429560586628e-14</v>
+        <v>2.224157378810845e-14</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.9996048459213613</v>
+        <v>0.9998764594315078</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>RUG608.fasta</t>
+          <t>RUG835.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.001228477434632574</v>
+        <v>0.999969691629652</v>
       </c>
       <c r="C67" t="n">
-        <v>2.220268052643406e-14</v>
+        <v>2.220441590492765e-14</v>
       </c>
       <c r="D67" t="n">
-        <v>2.220268052643406e-14</v>
+        <v>2.220441590492765e-14</v>
       </c>
       <c r="E67" t="n">
-        <v>3.742539127740022e-09</v>
+        <v>3.030768727659974e-05</v>
       </c>
       <c r="F67" t="n">
-        <v>2.837048828006545e-09</v>
+        <v>2.045006573038139e-13</v>
       </c>
       <c r="G67" t="n">
-        <v>2.220268052643406e-14</v>
+        <v>2.220441590492765e-14</v>
       </c>
       <c r="H67" t="n">
-        <v>2.220268052643406e-14</v>
+        <v>2.220441590492765e-14</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9987715087528251</v>
+        <v>7.193795040824757e-13</v>
       </c>
       <c r="J67" t="n">
-        <v>2.220268052643406e-14</v>
+        <v>2.220441590492765e-14</v>
       </c>
       <c r="K67" t="n">
-        <v>2.220268052643406e-14</v>
+        <v>2.220441590492765e-14</v>
       </c>
       <c r="L67" t="n">
-        <v>7.232732365210432e-09</v>
+        <v>6.819256754293387e-10</v>
       </c>
       <c r="M67" t="n">
-        <v>2.220268052643406e-14</v>
+        <v>2.220441590492765e-14</v>
       </c>
       <c r="N67" t="n">
-        <v>2.220268052643406e-14</v>
+        <v>2.220441590492765e-14</v>
       </c>
       <c r="O67" t="n">
-        <v>2.220268052643406e-14</v>
+        <v>2.220441590492765e-14</v>
       </c>
       <c r="P67" t="n">
-        <v>2.220268052643406e-14</v>
+        <v>2.220441590492765e-14</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.9987715087528251</v>
+        <v>0.999969691629652</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Acutalibacteraceae</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>RUG623.fasta</t>
+          <t>RUG841.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01657954487201492</v>
+        <v>0.9969105065446043</v>
       </c>
       <c r="C68" t="n">
-        <v>2.220063299038631e-14</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="D68" t="n">
-        <v>2.220063299038631e-14</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="E68" t="n">
-        <v>1.861254055997202e-10</v>
+        <v>0.003089493455106996</v>
       </c>
       <c r="F68" t="n">
-        <v>7.11197962396001e-11</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="G68" t="n">
-        <v>2.220063299038631e-14</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="H68" t="n">
-        <v>2.220063299038631e-14</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="I68" t="n">
-        <v>0.983381408908127</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="J68" t="n">
-        <v>2.220063299038631e-14</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="K68" t="n">
-        <v>2.220063299038631e-14</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="L68" t="n">
-        <v>3.904596239100799e-05</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="M68" t="n">
-        <v>2.220063299038631e-14</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="N68" t="n">
-        <v>2.220063299038631e-14</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="O68" t="n">
-        <v>2.220063299038631e-14</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="P68" t="n">
-        <v>2.220063299038631e-14</v>
+        <v>2.220058017243442e-14</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.983381408908127</v>
+        <v>0.9969105065446043</v>
       </c>
       <c r="R68" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>RUG637.fasta</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9999918781999355</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2.220445021113723e-14</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2.220445021113723e-14</v>
-      </c>
-      <c r="E69" t="n">
-        <v>8.12056925441076e-06</v>
-      </c>
-      <c r="F69" t="n">
-        <v>9.525240566720709e-14</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2.220445021113723e-14</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2.220445021113723e-14</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1.086192658836965e-11</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2.220445021113723e-14</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2.220445021113723e-14</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1.219630735122339e-09</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2.220445021113723e-14</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2.220445021113723e-14</v>
-      </c>
-      <c r="O69" t="n">
-        <v>2.220445021113723e-14</v>
-      </c>
-      <c r="P69" t="n">
-        <v>2.220445021113723e-14</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0.9999918781999355</v>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>RUG665.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9999806140243387</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2.220443350837176e-14</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2.220443350837176e-14</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1.938571765613136e-05</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1.61618700813024e-13</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2.220443350837176e-14</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2.220443350837176e-14</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2.914017823829578e-11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2.220443350837176e-14</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2.220443350837176e-14</v>
-      </c>
-      <c r="L70" t="n">
-        <v>2.284812026297735e-10</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2.220443350837176e-14</v>
-      </c>
-      <c r="N70" t="n">
-        <v>2.220443350837176e-14</v>
-      </c>
-      <c r="O70" t="n">
-        <v>2.220443350837176e-14</v>
-      </c>
-      <c r="P70" t="n">
-        <v>2.220443350837176e-14</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0.9999806140243387</v>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>RUG669.fasta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9998838585428336</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2.220725764813904e-14</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2.220725764813904e-14</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4.302877365427038e-08</v>
-      </c>
-      <c r="F71" t="n">
-        <v>3.873099305395284e-12</v>
-      </c>
-      <c r="G71" t="n">
-        <v>2.220725764813904e-14</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2.220725764813904e-14</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.086594731325191e-08</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2.220725764813904e-14</v>
-      </c>
-      <c r="K71" t="n">
-        <v>2.220725764813904e-14</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.0001160675583503596</v>
-      </c>
-      <c r="M71" t="n">
-        <v>2.220725764813904e-14</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2.220725764813904e-14</v>
-      </c>
-      <c r="O71" t="n">
-        <v>2.220725764813904e-14</v>
-      </c>
-      <c r="P71" t="n">
-        <v>2.220725764813904e-14</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0.9998838585428336</v>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>RUG670.fasta</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9999554218543784</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2.221696576260234e-14</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2.221696576260234e-14</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2.574207656981324e-12</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1.074302910459046e-09</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2.221696576260234e-14</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2.221696576260234e-14</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1.047002215087509e-05</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2.221696576260234e-14</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2.221696576260234e-14</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.410704637146035e-05</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2.221696576260234e-14</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2.221696576260234e-14</v>
-      </c>
-      <c r="O72" t="n">
-        <v>2.221696576260234e-14</v>
-      </c>
-      <c r="P72" t="n">
-        <v>2.221696576260234e-14</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0.9999554218543784</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>RUG672.fasta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.997015605394637</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2.220057909094907e-14</v>
-      </c>
-      <c r="D73" t="n">
-        <v>2.220057909094907e-14</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2.220057909094907e-14</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5.051758548760639e-11</v>
-      </c>
-      <c r="G73" t="n">
-        <v>2.220057909094907e-14</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2.220057909094907e-14</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2.075781441351075e-13</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2.220057909094907e-14</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2.220057909094907e-14</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.937899350446806e-10</v>
-      </c>
-      <c r="M73" t="n">
-        <v>2.220057909094907e-14</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.002984394060625893</v>
-      </c>
-      <c r="O73" t="n">
-        <v>2.220057909094907e-14</v>
-      </c>
-      <c r="P73" t="n">
-        <v>2.220057909094907e-14</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0.997015605394637</v>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>RUG674.fasta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>8.706357029178541e-07</v>
-      </c>
-      <c r="C74" t="n">
-        <v>2.220445274842187e-14</v>
-      </c>
-      <c r="D74" t="n">
-        <v>2.220445274842187e-14</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1.116346655581346e-09</v>
-      </c>
-      <c r="F74" t="n">
-        <v>2.220445274842187e-14</v>
-      </c>
-      <c r="G74" t="n">
-        <v>2.220445274842187e-14</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2.220445274842187e-14</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.9999947684831052</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2.220445274842187e-14</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2.220445274842187e-14</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.359764601033498e-06</v>
-      </c>
-      <c r="M74" t="n">
-        <v>2.220445274842187e-14</v>
-      </c>
-      <c r="N74" t="n">
-        <v>2.220445274842187e-14</v>
-      </c>
-      <c r="O74" t="n">
-        <v>2.220445274842187e-14</v>
-      </c>
-      <c r="P74" t="n">
-        <v>2.220445274842187e-14</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0.9999947684831052</v>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>RUG680.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.006451619285803738</v>
-      </c>
-      <c r="C75" t="n">
-        <v>2.220060925396243e-14</v>
-      </c>
-      <c r="D75" t="n">
-        <v>2.220060925396243e-14</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.9935483789920002</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1.576053616500181e-09</v>
-      </c>
-      <c r="G75" t="n">
-        <v>2.220060925396243e-14</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2.220060925396243e-14</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.390785651222895e-10</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2.220060925396243e-14</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2.220060925396243e-14</v>
-      </c>
-      <c r="L75" t="n">
-        <v>6.841809410256683e-12</v>
-      </c>
-      <c r="M75" t="n">
-        <v>2.220060925396243e-14</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2.220060925396243e-14</v>
-      </c>
-      <c r="O75" t="n">
-        <v>2.220060925396243e-14</v>
-      </c>
-      <c r="P75" t="n">
-        <v>2.220060925396243e-14</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0.9935483789920002</v>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>f__CAG-272</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>f__CAG-272</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>RUG700.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.998529772951302</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2.220237152565993e-14</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2.220237152565993e-14</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.001105711864801958</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.0003644634755012477</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2.220237152565993e-14</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2.220237152565993e-14</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5.165284616243898e-08</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2.220237152565993e-14</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2.220237152565993e-14</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5.532651884180722e-11</v>
-      </c>
-      <c r="M76" t="n">
-        <v>2.220237152565993e-14</v>
-      </c>
-      <c r="N76" t="n">
-        <v>2.220237152565993e-14</v>
-      </c>
-      <c r="O76" t="n">
-        <v>2.220237152565993e-14</v>
-      </c>
-      <c r="P76" t="n">
-        <v>2.220237152565993e-14</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0.998529772951302</v>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>RUG745.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9999887140041416</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1.128599556977439e-05</v>
-      </c>
-      <c r="F77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="G77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="K77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="M77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="N77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="O77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="P77" t="n">
-        <v>2.220444378644085e-14</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.9999887140041416</v>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>RUG757.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9999735289562709</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2.220464054425902e-14</v>
-      </c>
-      <c r="D78" t="n">
-        <v>2.220464054425902e-14</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8.126411819216751e-07</v>
-      </c>
-      <c r="F78" t="n">
-        <v>7.558823048628092e-07</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2.220464054425902e-14</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2.220464054425902e-14</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2.114897572440393e-09</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2.220464054425902e-14</v>
-      </c>
-      <c r="K78" t="n">
-        <v>2.220464054425902e-14</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.490040512272673e-05</v>
-      </c>
-      <c r="M78" t="n">
-        <v>2.220464054425902e-14</v>
-      </c>
-      <c r="N78" t="n">
-        <v>2.220464054425902e-14</v>
-      </c>
-      <c r="O78" t="n">
-        <v>2.220464054425902e-14</v>
-      </c>
-      <c r="P78" t="n">
-        <v>2.220464054425902e-14</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0.9999735289562709</v>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>RUG770.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9816321634864994</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.001311985550184847</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.001311985550184847</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.00131198578358221</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.001312024126042881</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.001311985550184846</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.001311985550184843</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.001311985550185613</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.001311985550184837</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.001311985550184844</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.001311985551841945</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.001311985550184844</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.001311985550184847</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.001311985550184847</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0.001311985550184846</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.9816321634864994</v>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>RUG776.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.004145383137111138</v>
-      </c>
-      <c r="C80" t="n">
-        <v>2.220098278964314e-14</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2.220098278964314e-14</v>
-      </c>
-      <c r="E80" t="n">
-        <v>9.181223816359946e-10</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1.546037093357414e-11</v>
-      </c>
-      <c r="G80" t="n">
-        <v>2.220098278964314e-14</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2.220098278964314e-14</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.9949281794360356</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2.220098278964314e-14</v>
-      </c>
-      <c r="K80" t="n">
-        <v>2.220098278964314e-14</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.0009264364930484796</v>
-      </c>
-      <c r="M80" t="n">
-        <v>2.220098278964314e-14</v>
-      </c>
-      <c r="N80" t="n">
-        <v>2.220098278964314e-14</v>
-      </c>
-      <c r="O80" t="n">
-        <v>2.220098278964314e-14</v>
-      </c>
-      <c r="P80" t="n">
-        <v>2.220098278964314e-14</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0.9949281794360356</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>RUG798.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>3.888552157457632e-10</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2.220488531035659e-14</v>
-      </c>
-      <c r="D81" t="n">
-        <v>2.220488531035659e-14</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2.220488531035659e-14</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2.220488531035659e-14</v>
-      </c>
-      <c r="G81" t="n">
-        <v>2.220488531035659e-14</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2.220488531035659e-14</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.9999999622157775</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2.220488531035659e-14</v>
-      </c>
-      <c r="K81" t="n">
-        <v>2.220488531035659e-14</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.739510071912075e-08</v>
-      </c>
-      <c r="M81" t="n">
-        <v>2.220488531035659e-14</v>
-      </c>
-      <c r="N81" t="n">
-        <v>2.220488531035659e-14</v>
-      </c>
-      <c r="O81" t="n">
-        <v>2.220488531035659e-14</v>
-      </c>
-      <c r="P81" t="n">
-        <v>2.220488531035659e-14</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.9999999622157775</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>f__Oscillospiraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>RUG803.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.9999979773354639</v>
-      </c>
-      <c r="C82" t="n">
-        <v>2.220445749918314e-14</v>
-      </c>
-      <c r="D82" t="n">
-        <v>2.220445749918314e-14</v>
-      </c>
-      <c r="E82" t="n">
-        <v>5.965826037048471e-13</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2.220445749918314e-14</v>
-      </c>
-      <c r="G82" t="n">
-        <v>2.220445749918314e-14</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2.220445749918314e-14</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2.220445749918314e-14</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2.220445749918314e-14</v>
-      </c>
-      <c r="K82" t="n">
-        <v>2.220445749918314e-14</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.022663672999851e-06</v>
-      </c>
-      <c r="M82" t="n">
-        <v>2.220445749918314e-14</v>
-      </c>
-      <c r="N82" t="n">
-        <v>2.220445749918314e-14</v>
-      </c>
-      <c r="O82" t="n">
-        <v>2.220445749918314e-14</v>
-      </c>
-      <c r="P82" t="n">
-        <v>2.220445749918314e-14</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.9999979773354639</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>RUG814.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.999993669191751</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2.220696480326237e-14</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2.220696480326237e-14</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.006768900591796e-07</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2.874978823625519e-09</v>
-      </c>
-      <c r="G83" t="n">
-        <v>2.220696480326237e-14</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2.220696480326237e-14</v>
-      </c>
-      <c r="I83" t="n">
-        <v>7.638018772835655e-08</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.220696480326236e-14</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2.220696480326236e-14</v>
-      </c>
-      <c r="L83" t="n">
-        <v>6.150875970253704e-06</v>
-      </c>
-      <c r="M83" t="n">
-        <v>2.220696480326236e-14</v>
-      </c>
-      <c r="N83" t="n">
-        <v>2.220696480326236e-14</v>
-      </c>
-      <c r="O83" t="n">
-        <v>2.220696480326236e-14</v>
-      </c>
-      <c r="P83" t="n">
-        <v>2.220696480326236e-14</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.999993669191751</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>RUG825.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.9992995345054932</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2.224001471016659e-14</v>
-      </c>
-      <c r="D84" t="n">
-        <v>2.224001471016659e-14</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.179500164826027e-12</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2.368580840527798e-09</v>
-      </c>
-      <c r="G84" t="n">
-        <v>2.224001471016659e-14</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2.224001471016659e-14</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.0006762595282300181</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2.224001471016659e-14</v>
-      </c>
-      <c r="K84" t="n">
-        <v>2.224001471016659e-14</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.420359629428132e-05</v>
-      </c>
-      <c r="M84" t="n">
-        <v>2.224001471016659e-14</v>
-      </c>
-      <c r="N84" t="n">
-        <v>2.224001471016659e-14</v>
-      </c>
-      <c r="O84" t="n">
-        <v>2.224001471016659e-14</v>
-      </c>
-      <c r="P84" t="n">
-        <v>2.224001471016659e-14</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0.9992995345054932</v>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>RUG835.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.9999834848839279</v>
-      </c>
-      <c r="C85" t="n">
-        <v>2.220443647136305e-14</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2.220443647136305e-14</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.65147220741241e-05</v>
-      </c>
-      <c r="F85" t="n">
-        <v>8.605264596130917e-13</v>
-      </c>
-      <c r="G85" t="n">
-        <v>2.220443647136305e-14</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2.220443647136305e-14</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1.187896021361287e-12</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2.220443647136305e-14</v>
-      </c>
-      <c r="K85" t="n">
-        <v>2.220443647136305e-14</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.917275892745975e-10</v>
-      </c>
-      <c r="M85" t="n">
-        <v>2.220443647136305e-14</v>
-      </c>
-      <c r="N85" t="n">
-        <v>2.220443647136305e-14</v>
-      </c>
-      <c r="O85" t="n">
-        <v>2.220443647136305e-14</v>
-      </c>
-      <c r="P85" t="n">
-        <v>2.220443647136305e-14</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.9999834848839279</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>RUG841.fasta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.9965392560744211</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="D86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.003460743925290367</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="G86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="M86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="N86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="O86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="P86" t="n">
-        <v>2.22005829568371e-14</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.9965392560744211</v>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>hRUG862.fasta</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.001717989619062917</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2.220194198235343e-14</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2.220194198235343e-14</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1.442817385330922e-05</v>
-      </c>
-      <c r="F87" t="n">
-        <v>5.304380393775708e-08</v>
-      </c>
-      <c r="G87" t="n">
-        <v>2.220194198235343e-14</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2.220194198235343e-14</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5.620409666427891e-13</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2.220194198235343e-14</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2.220194198235343e-14</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.9982675291624957</v>
-      </c>
-      <c r="M87" t="n">
-        <v>2.220194198235343e-14</v>
-      </c>
-      <c r="N87" t="n">
-        <v>2.220194198235343e-14</v>
-      </c>
-      <c r="O87" t="n">
-        <v>2.220194198235343e-14</v>
-      </c>
-      <c r="P87" t="n">
-        <v>2.220194198235343e-14</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.9982675291624957</v>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>f__Ruminococcaceae</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>f__Ruminococcaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>hRUG901.fasta</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.9801790474912938</v>
-      </c>
-      <c r="C88" t="n">
-        <v>4.440390065715719e-12</v>
-      </c>
-      <c r="D88" t="n">
-        <v>4.440390065715719e-12</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.01955406030152974</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.0002668919825039756</v>
-      </c>
-      <c r="G88" t="n">
-        <v>4.440390065715732e-12</v>
-      </c>
-      <c r="H88" t="n">
-        <v>4.440390065715739e-12</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4.440390065715739e-12</v>
-      </c>
-      <c r="J88" t="n">
-        <v>4.440390065715739e-12</v>
-      </c>
-      <c r="K88" t="n">
-        <v>4.440390065715735e-12</v>
-      </c>
-      <c r="L88" t="n">
-        <v>1.75827854399712e-10</v>
-      </c>
-      <c r="M88" t="n">
-        <v>4.440390065715741e-12</v>
-      </c>
-      <c r="N88" t="n">
-        <v>4.440390065715763e-12</v>
-      </c>
-      <c r="O88" t="n">
-        <v>4.440390065715763e-12</v>
-      </c>
-      <c r="P88" t="n">
-        <v>4.440390065715726e-12</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.9801790474912938</v>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>f__Acutalibacteraceae</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>

--- a/outputs-r202/o__Oscillospirales.xlsx
+++ b/outputs-r202/o__Oscillospirales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -585,6 +590,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -645,6 +655,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -705,6 +720,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -765,6 +785,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -825,6 +850,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -885,6 +915,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -945,6 +980,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1005,6 +1045,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1065,6 +1110,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1125,6 +1175,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1185,6 +1240,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1245,6 +1305,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1305,6 +1370,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1365,6 +1435,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1425,6 +1500,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1485,6 +1565,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1545,6 +1630,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1605,6 +1695,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1665,6 +1760,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1725,6 +1825,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1785,6 +1890,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1845,6 +1955,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1905,6 +2020,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1965,6 +2085,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2025,6 +2150,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2085,6 +2215,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2145,6 +2280,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2205,6 +2345,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2265,6 +2410,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2325,6 +2475,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2385,6 +2540,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2445,6 +2605,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2505,6 +2670,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2565,6 +2735,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2625,6 +2800,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2685,6 +2865,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2745,6 +2930,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2805,6 +2995,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2865,6 +3060,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2925,6 +3125,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2985,6 +3190,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3045,6 +3255,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3105,6 +3320,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3165,6 +3385,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3225,6 +3450,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3285,6 +3515,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3345,6 +3580,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3405,6 +3645,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3465,6 +3710,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3525,6 +3775,11 @@
           <t>f__Ruminococcaceae</t>
         </is>
       </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3585,6 +3840,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3645,6 +3905,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -3705,6 +3970,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -3765,6 +4035,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3825,6 +4100,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3885,6 +4165,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3945,6 +4230,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -4005,6 +4295,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -4065,6 +4360,11 @@
           <t>f__CAG-272</t>
         </is>
       </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>f__CAG-272</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -4125,6 +4425,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -4185,6 +4490,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -4245,6 +4555,11 @@
           <t>f__Oscillospiraceae</t>
         </is>
       </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -4305,6 +4620,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -4365,6 +4685,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -4425,6 +4750,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -4485,6 +4815,11 @@
           <t>f__Acutalibacteraceae</t>
         </is>
       </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -4541,6 +4876,11 @@
         <v>0.9969105065446043</v>
       </c>
       <c r="R68" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
         <is>
           <t>f__Acutalibacteraceae</t>
         </is>
